--- a/仕様書/カラマリテープ_仕様書_プレイヤー.xlsx
+++ b/仕様書/カラマリテープ_仕様書_プレイヤー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3280C-2810-4E6A-BBD8-83D932B77F47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BA868-C18E-4941-8536-EAF5A9705C9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="170">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -626,10 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1・２・３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -637,41 +633,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主人公の移動</t>
-    <rPh sb="0" eb="3">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1・３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューを開く</t>
-    <rPh sb="5" eb="6">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム中にポーズメニューを開く/閉じる</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -698,13 +660,6 @@
     <t>プレイヤーの移動</t>
     <rPh sb="6" eb="8">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーボード操作</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,16 +717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動 (メビウスの輪)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施項目リスト</t>
     <rPh sb="0" eb="4">
       <t>ジッシコウモク</t>
@@ -780,26 +725,6 @@
   </si>
   <si>
     <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動 (ネンチャク面)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動 (ツルツル面)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -846,6 +771,584 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２・３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2・３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューを開く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中にポーズメニューを開く/閉じる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縮小</t>
+    <rPh sb="0" eb="2">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネンチャクモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツルツルモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セロハンテープの縮小を行う時</t>
+    <rPh sb="8" eb="10">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネンチャクモードに切り替え/解除(カラマリモード)</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツルツルモードに切り替え/解除(カラマリモード)</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード・マウス 操作</t>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネンチャクモードに切り替え/解除(カラマリモード)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツルツルモードに切り替え/解除(カラマリモード)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セロハンテープの縮小を行う時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスホイール 上回転</t>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスホイール 下回転</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動 (ネンチャクモード)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動 (ツルツルモード)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動 (カラマリモード)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ハムスターは歩行アニメーションを行っている</t>
+  </si>
+  <si>
+    <t>・移動は基本的に自動で行う</t>
+  </si>
+  <si>
+    <t>・スティックで移動する方向を決めることが可能</t>
+  </si>
+  <si>
+    <t>・スティックで移動する方向を決めることが可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動は基本的に自動で行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ハムスターは歩行アニメーションを行っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一定時間ごとに移動と停止を繰り返す（1秒～1.5秒：要調整）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム開始直後は「カラマリモード」の状態になっている</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地上にいる場合は移動することができない。</t>
+    <rPh sb="1" eb="3">
+      <t>チジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動速度は(要調整)</t>
+  </si>
+  <si>
+    <t>・移動速度は(要調整)</t>
+    <rPh sb="1" eb="5">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動する際はセロハンテープ(土台ごと)が回転している</t>
+  </si>
+  <si>
+    <t>・移動する際はセロハンテープ(土台ごと)が回転している</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動中ハムスターは歩行アニメーションを行っている</t>
+    <rPh sb="1" eb="4">
+      <t>イドウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・壁に張り付いている時のみ移動を行うことが可能</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ツルツルモード中は常に移動を行う</t>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「XboxコントローラーのLBボタン」又は「キーボードのFキー」押下でネンチャクモードを切り替える</t>
+    <rPh sb="20" eb="21">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「XboxコントローラーのRBボタン」又は「キーボードのRキー」押下でツルツルモードを切り替える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・耐久ゲージを作成。耐久可能時間は最大10秒(要調整)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再度「XboxコントローラーのLBボタン」又は「キーボードのFキー」押下でカラマリモードを切り替える</t>
+    <rPh sb="1" eb="3">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再度「XboxコントローラーのRBボタン」又は「キーボードのRキー」押下でカラマリモードを切り替える</t>
+    <rPh sb="1" eb="3">
+      <t>サイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期のサイズから5秒長押しで最大サイズとなる(要調整)</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「XboxコントローラーのYボタン長押し」又は「マウスホイール上回転」でテープの拡大を行う</t>
+    <rPh sb="18" eb="20">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ウエカイテン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大サイズになった際、拡大停止処理を実装</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カクダイテイシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「XboxコントローラーのYボタン長押し」又は「マウスホイール下回転」でテープの拡大を行う</t>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大サイズから5秒長押しで最小サイズとなる(要調整)</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期サイズから縮小することはできない</t>
+    <rPh sb="8" eb="10">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大サイズはブロック0.5個分(要調整)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大サイズはブロック4個分(要調整)</t>
+    <rPh sb="1" eb="3">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コブン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最小サイズになった際、縮小停止処理を実装</t>
+    <rPh sb="1" eb="3">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「Bボタン長押し」又は「キーボードのSPACEキー」で押下でジャンプを行う</t>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・縮小している時に移動を行うことは可能か？(要検討)</t>
+    <rPh sb="1" eb="3">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンを押した時間によって、ジャンプの高さを変化するか？（要検討）</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヨウケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・拡大している時に移動を行うことは可能か？(要検討)</t>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプの高さは最大ブロック4.5個分(要調整)</t>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「スティック、十字キー」又は「キーボードのW/A/S/D」で空中にいる時に方向転換を行う</t>
+    <rPh sb="8" eb="10">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ホウコウテンカン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Xboxコントローラー操作」に「縮小」・「ネンチャクモード」・「ツルツルモード」を追加</t>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キーボード操作」に「縮小」・「ネンチャクモード」・「ツルツルモード」を追加</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「移動3種」・「拡大、縮小」・「ジャンプ、空中移動」に実施項目リストの内容を追加</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>クウチュウイドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1641,10 +2144,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,9 +2301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>53951</xdr:colOff>
+      <xdr:colOff>59031</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>16288</xdr:rowOff>
+      <xdr:rowOff>22638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1841,16 +2344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>12789</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>37561</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>33109</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>69311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1879,8 +2382,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="7543800"/>
-          <a:ext cx="5028654" cy="1923511"/>
+          <a:off x="2896870" y="8274050"/>
+          <a:ext cx="4977219" cy="1960341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>23797</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>2018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F065BE93-53AD-48A8-8A8C-3CAF0F39F51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587740" y="8274758"/>
+          <a:ext cx="1197277" cy="1892340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,31 +2856,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2502EAED-473A-405C-AE3D-03E37269E2DD}">
   <dimension ref="A1:BU51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:S30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
+    <col min="1" max="16384" width="2.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:73" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:73" s="21" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:73" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:73" s="19" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:73" s="21" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="23" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:73" s="23" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2891,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -2414,7 +2967,7 @@
       <c r="BT7" s="34"/>
       <c r="BU7" s="34"/>
     </row>
-    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +3043,7 @@
       <c r="BT8" s="34"/>
       <c r="BU8" s="34"/>
     </row>
-    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -2564,7 +3117,7 @@
       <c r="BT9" s="34"/>
       <c r="BU9" s="34"/>
     </row>
-    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +3201,7 @@
       <c r="BT10" s="33"/>
       <c r="BU10" s="33"/>
     </row>
-    <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -2722,7 +3275,7 @@
       <c r="BT11" s="33"/>
       <c r="BU11" s="33"/>
     </row>
-    <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:73" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -2798,7 +3351,7 @@
       <c r="BT12" s="33"/>
       <c r="BU12" s="33"/>
     </row>
-    <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -2880,7 +3433,7 @@
       <c r="BT13" s="8"/>
       <c r="BU13" s="8"/>
     </row>
-    <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2962,7 +3515,7 @@
       <c r="BT14" s="4"/>
       <c r="BU14" s="4"/>
     </row>
-    <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3044,7 +3597,7 @@
       <c r="BT15" s="4"/>
       <c r="BU15" s="4"/>
     </row>
-    <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3126,7 +3679,7 @@
       <c r="BT16" s="4"/>
       <c r="BU16" s="4"/>
     </row>
-    <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3175,7 +3728,7 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
@@ -3208,7 +3761,7 @@
       <c r="BT17" s="4"/>
       <c r="BU17" s="4"/>
     </row>
-    <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3257,7 +3810,7 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
@@ -3290,7 +3843,7 @@
       <c r="BT18" s="4"/>
       <c r="BU18" s="4"/>
     </row>
-    <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3339,7 +3892,7 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
@@ -3372,7 +3925,7 @@
       <c r="BT19" s="4"/>
       <c r="BU19" s="4"/>
     </row>
-    <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3421,7 +3974,7 @@
       <c r="AO20" s="6"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
@@ -3454,7 +4007,7 @@
       <c r="BT20" s="4"/>
       <c r="BU20" s="4"/>
     </row>
-    <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -3462,7 +4015,9 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="9">
+        <v>44291</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3473,7 +4028,9 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -3481,7 +4038,9 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
@@ -3496,7 +4055,9 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
+      <c r="AQ21" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
@@ -3528,7 +4089,7 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
     </row>
-    <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3536,7 +4097,9 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="9">
+        <v>44291</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3547,7 +4110,9 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -3555,7 +4120,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
+      <c r="AB22" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
@@ -3570,7 +4137,9 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
+      <c r="AQ22" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
@@ -3602,7 +4171,7 @@
       <c r="BT22" s="4"/>
       <c r="BU22" s="4"/>
     </row>
-    <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3610,7 +4179,9 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="9">
+        <v>44291</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3621,7 +4192,9 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -3629,7 +4202,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="AB23" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
@@ -3644,7 +4219,9 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
+      <c r="AQ23" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
@@ -3676,7 +4253,7 @@
       <c r="BT23" s="4"/>
       <c r="BU23" s="4"/>
     </row>
-    <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3750,7 +4327,7 @@
       <c r="BT24" s="4"/>
       <c r="BU24" s="4"/>
     </row>
-    <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3824,7 +4401,7 @@
       <c r="BT25" s="4"/>
       <c r="BU25" s="4"/>
     </row>
-    <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3898,7 +4475,7 @@
       <c r="BT26" s="4"/>
       <c r="BU26" s="4"/>
     </row>
-    <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3972,7 +4549,7 @@
       <c r="BT27" s="4"/>
       <c r="BU27" s="4"/>
     </row>
-    <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4046,7 +4623,7 @@
       <c r="BT28" s="4"/>
       <c r="BU28" s="4"/>
     </row>
-    <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4120,7 +4697,7 @@
       <c r="BT29" s="4"/>
       <c r="BU29" s="4"/>
     </row>
-    <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4194,7 +4771,7 @@
       <c r="BT30" s="4"/>
       <c r="BU30" s="4"/>
     </row>
-    <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4268,7 +4845,7 @@
       <c r="BT31" s="4"/>
       <c r="BU31" s="4"/>
     </row>
-    <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:73" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4277,7 +4854,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4286,7 +4863,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4295,7 +4872,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4304,7 +4881,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4313,7 +4890,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4322,7 +4899,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4331,7 +4908,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4340,7 +4917,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4349,7 +4926,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4358,7 +4935,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4367,7 +4944,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4376,7 +4953,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4385,7 +4962,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4394,7 +4971,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4403,7 +4980,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4412,7 +4989,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4421,7 +4998,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4430,7 +5007,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4439,7 +5016,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4573,31 +5150,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EFD6AD-BC50-4081-B4E6-0E5707F89605}">
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
+    <col min="1" max="16384" width="2.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +5185,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -4693,7 +5270,7 @@
       <c r="CC7" s="64"/>
       <c r="CD7" s="65"/>
     </row>
-    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +5355,7 @@
       <c r="CC8" s="67"/>
       <c r="CD8" s="68"/>
     </row>
-    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -4861,7 +5438,7 @@
       <c r="CC9" s="70"/>
       <c r="CD9" s="71"/>
     </row>
-    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
@@ -4946,7 +5523,7 @@
       <c r="CC10" s="2"/>
       <c r="CD10" s="2"/>
     </row>
-    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5031,7 +5608,7 @@
       <c r="CC11" s="40"/>
       <c r="CD11" s="41"/>
     </row>
-    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -5116,7 +5693,7 @@
       <c r="CC12" s="43"/>
       <c r="CD12" s="44"/>
     </row>
-    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -5199,7 +5776,7 @@
       <c r="CC13" s="46"/>
       <c r="CD13" s="47"/>
     </row>
-    <row r="14" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -5290,7 +5867,7 @@
       <c r="CC14" s="59"/>
       <c r="CD14" s="59"/>
     </row>
-    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5381,7 +5958,7 @@
       <c r="CC15" s="52"/>
       <c r="CD15" s="52"/>
     </row>
-    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -5472,7 +6049,7 @@
       <c r="CC16" s="52"/>
       <c r="CD16" s="52"/>
     </row>
-    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5563,7 +6140,7 @@
       <c r="CC17" s="52"/>
       <c r="CD17" s="52"/>
     </row>
-    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5646,7 +6223,7 @@
       <c r="CC18" s="52"/>
       <c r="CD18" s="52"/>
     </row>
-    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -5729,7 +6306,7 @@
       <c r="CC19" s="52"/>
       <c r="CD19" s="52"/>
     </row>
-    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -5812,7 +6389,7 @@
       <c r="CC20" s="52"/>
       <c r="CD20" s="52"/>
     </row>
-    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5821,7 +6398,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5904,7 +6481,7 @@
       <c r="CC22" s="2"/>
       <c r="CD22" s="2"/>
     </row>
-    <row r="23" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5987,7 +6564,7 @@
       <c r="CC23" s="2"/>
       <c r="CD23" s="2"/>
     </row>
-    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6072,7 +6649,7 @@
       <c r="CC24" s="40"/>
       <c r="CD24" s="41"/>
     </row>
-    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6155,7 +6732,7 @@
       <c r="CC25" s="43"/>
       <c r="CD25" s="44"/>
     </row>
-    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6238,7 +6815,7 @@
       <c r="CC26" s="46"/>
       <c r="CD26" s="47"/>
     </row>
-    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6331,7 +6908,7 @@
       <c r="CC27" s="48"/>
       <c r="CD27" s="48"/>
     </row>
-    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6424,7 +7001,7 @@
       <c r="CC28" s="50"/>
       <c r="CD28" s="51"/>
     </row>
-    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -6517,7 +7094,7 @@
       <c r="CC29" s="38"/>
       <c r="CD29" s="38"/>
     </row>
-    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6610,7 +7187,7 @@
       <c r="CC30" s="50"/>
       <c r="CD30" s="51"/>
     </row>
-    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6703,7 +7280,7 @@
       <c r="CC31" s="50"/>
       <c r="CD31" s="51"/>
     </row>
-    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6796,7 +7373,7 @@
       <c r="CC32" s="50"/>
       <c r="CD32" s="51"/>
     </row>
-    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6889,7 +7466,7 @@
       <c r="CC33" s="50"/>
       <c r="CD33" s="51"/>
     </row>
-    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6972,7 +7549,7 @@
       <c r="CC34" s="38"/>
       <c r="CD34" s="38"/>
     </row>
-    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -7055,7 +7632,7 @@
       <c r="CC35" s="38"/>
       <c r="CD35" s="38"/>
     </row>
-    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -7138,7 +7715,7 @@
       <c r="CC36" s="38"/>
       <c r="CD36" s="38"/>
     </row>
-    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7147,7 +7724,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7156,7 +7733,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7165,7 +7742,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -7250,7 +7827,7 @@
       <c r="CC40" s="40"/>
       <c r="CD40" s="41"/>
     </row>
-    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7333,7 +7910,7 @@
       <c r="CC41" s="43"/>
       <c r="CD41" s="44"/>
     </row>
-    <row r="42" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -7416,7 +7993,7 @@
       <c r="CC42" s="46"/>
       <c r="CD42" s="47"/>
     </row>
-    <row r="43" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7507,7 +8084,7 @@
       <c r="CC43" s="48"/>
       <c r="CD43" s="48"/>
     </row>
-    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -7598,7 +8175,7 @@
       <c r="CC44" s="38"/>
       <c r="CD44" s="38"/>
     </row>
-    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7689,7 +8266,7 @@
       <c r="CC45" s="38"/>
       <c r="CD45" s="38"/>
     </row>
-    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -7772,7 +8349,7 @@
       <c r="CC46" s="38"/>
       <c r="CD46" s="38"/>
     </row>
-    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7855,7 +8432,7 @@
       <c r="CC47" s="38"/>
       <c r="CD47" s="38"/>
     </row>
-    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -7938,7 +8515,7 @@
       <c r="CC48" s="38"/>
       <c r="CD48" s="38"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -7947,7 +8524,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -7956,7 +8533,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -7967,13 +8544,6 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:XFD5"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="I7:CD9"/>
-    <mergeCell ref="I11:CD13"/>
     <mergeCell ref="A50:G51"/>
     <mergeCell ref="A38:G39"/>
     <mergeCell ref="A40:G41"/>
@@ -7991,6 +8561,21 @@
     <mergeCell ref="A26:G27"/>
     <mergeCell ref="A28:G29"/>
     <mergeCell ref="A30:G31"/>
+    <mergeCell ref="V28:AW28"/>
+    <mergeCell ref="AX28:BI28"/>
+    <mergeCell ref="BJ28:BO28"/>
+    <mergeCell ref="BP28:CD28"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:XFD5"/>
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="I7:CD9"/>
+    <mergeCell ref="I11:CD13"/>
+    <mergeCell ref="I20:U20"/>
+    <mergeCell ref="BJ20:BO20"/>
+    <mergeCell ref="BP20:CD20"/>
+    <mergeCell ref="V20:BI20"/>
     <mergeCell ref="A32:G33"/>
     <mergeCell ref="A34:G35"/>
     <mergeCell ref="A12:G13"/>
@@ -8011,20 +8596,6 @@
     <mergeCell ref="BP17:CD17"/>
     <mergeCell ref="V17:BI17"/>
     <mergeCell ref="I28:U28"/>
-    <mergeCell ref="V28:AW28"/>
-    <mergeCell ref="AX28:BI28"/>
-    <mergeCell ref="BJ28:BO28"/>
-    <mergeCell ref="BP28:CD28"/>
-    <mergeCell ref="I24:CD26"/>
-    <mergeCell ref="I27:U27"/>
-    <mergeCell ref="V27:AW27"/>
-    <mergeCell ref="AX27:BI27"/>
-    <mergeCell ref="BJ27:BO27"/>
-    <mergeCell ref="BP27:CD27"/>
-    <mergeCell ref="I20:U20"/>
-    <mergeCell ref="BJ20:BO20"/>
-    <mergeCell ref="BP20:CD20"/>
-    <mergeCell ref="V20:BI20"/>
     <mergeCell ref="I19:U19"/>
     <mergeCell ref="BJ19:BO19"/>
     <mergeCell ref="BP19:CD19"/>
@@ -8043,6 +8614,12 @@
     <mergeCell ref="AX29:BI29"/>
     <mergeCell ref="BJ29:BO29"/>
     <mergeCell ref="BP29:CD29"/>
+    <mergeCell ref="I24:CD26"/>
+    <mergeCell ref="I27:U27"/>
+    <mergeCell ref="V27:AW27"/>
+    <mergeCell ref="AX27:BI27"/>
+    <mergeCell ref="BJ27:BO27"/>
+    <mergeCell ref="BP27:CD27"/>
     <mergeCell ref="I32:U32"/>
     <mergeCell ref="V32:AW32"/>
     <mergeCell ref="AX32:BI32"/>
@@ -8119,33 +8696,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC931E72-A0E3-46CC-9347-9202F340895C}">
-  <dimension ref="A1:CD68"/>
+  <dimension ref="A1:CD76"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
+    <col min="1" max="16384" width="2.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -8156,7 +8733,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -8241,7 +8818,7 @@
       <c r="CC7" s="64"/>
       <c r="CD7" s="65"/>
     </row>
-    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
@@ -8326,7 +8903,7 @@
       <c r="CC8" s="81"/>
       <c r="CD8" s="68"/>
     </row>
-    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -8409,7 +8986,7 @@
       <c r="CC9" s="70"/>
       <c r="CD9" s="71"/>
     </row>
-    <row r="10" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
@@ -8421,7 +8998,7 @@
       <c r="G10" s="32"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -8430,7 +9007,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -8441,7 +9018,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -8450,7 +9027,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -8459,7 +9036,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -8468,7 +9045,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -8477,7 +9054,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -8486,7 +9063,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -8495,7 +9072,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -8504,7 +9081,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -8513,7 +9090,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -8522,7 +9099,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8531,7 +9108,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -8540,7 +9117,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8549,7 +9126,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8558,7 +9135,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8567,7 +9144,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -8658,7 +9235,7 @@
       <c r="CC27" s="82"/>
       <c r="CD27" s="82"/>
     </row>
-    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8682,7 +9259,7 @@
       <c r="T28" s="80"/>
       <c r="U28" s="80"/>
       <c r="V28" s="80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W28" s="80"/>
       <c r="X28" s="80"/>
@@ -8732,7 +9309,7 @@
       <c r="BN28" s="80"/>
       <c r="BO28" s="80"/>
       <c r="BP28" s="80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BQ28" s="80"/>
       <c r="BR28" s="80"/>
@@ -8749,7 +9326,7 @@
       <c r="CC28" s="80"/>
       <c r="CD28" s="80"/>
     </row>
-    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -8757,90 +9334,90 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73" t="s">
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="73"/>
-      <c r="BL29" s="73"/>
-      <c r="BM29" s="73"/>
-      <c r="BN29" s="73"/>
-      <c r="BO29" s="73"/>
-      <c r="BP29" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ29" s="73"/>
-      <c r="BR29" s="73"/>
-      <c r="BS29" s="73"/>
-      <c r="BT29" s="73"/>
-      <c r="BU29" s="73"/>
-      <c r="BV29" s="73"/>
-      <c r="BW29" s="73"/>
-      <c r="BX29" s="73"/>
-      <c r="BY29" s="73"/>
-      <c r="BZ29" s="73"/>
-      <c r="CA29" s="73"/>
-      <c r="CB29" s="73"/>
-      <c r="CC29" s="73"/>
-      <c r="CD29" s="73"/>
-    </row>
-    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="72"/>
+      <c r="BG29" s="72"/>
+      <c r="BH29" s="72"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="72"/>
+      <c r="BM29" s="72"/>
+      <c r="BN29" s="72"/>
+      <c r="BO29" s="72"/>
+      <c r="BP29" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ29" s="72"/>
+      <c r="BR29" s="72"/>
+      <c r="BS29" s="72"/>
+      <c r="BT29" s="72"/>
+      <c r="BU29" s="72"/>
+      <c r="BV29" s="72"/>
+      <c r="BW29" s="72"/>
+      <c r="BX29" s="72"/>
+      <c r="BY29" s="72"/>
+      <c r="BZ29" s="72"/>
+      <c r="CA29" s="72"/>
+      <c r="CB29" s="72"/>
+      <c r="CC29" s="72"/>
+      <c r="CD29" s="72"/>
+    </row>
+    <row r="30" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8848,90 +9425,90 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72" t="s">
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72" t="s">
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="72"/>
-      <c r="AN30" s="72"/>
-      <c r="AO30" s="72"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="72"/>
-      <c r="AZ30" s="72"/>
-      <c r="BA30" s="72"/>
-      <c r="BB30" s="72"/>
-      <c r="BC30" s="72"/>
-      <c r="BD30" s="72"/>
-      <c r="BE30" s="72"/>
-      <c r="BF30" s="72"/>
-      <c r="BG30" s="72"/>
-      <c r="BH30" s="72"/>
-      <c r="BI30" s="72"/>
-      <c r="BJ30" s="72"/>
-      <c r="BK30" s="72"/>
-      <c r="BL30" s="72"/>
-      <c r="BM30" s="72"/>
-      <c r="BN30" s="72"/>
-      <c r="BO30" s="72"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
+      <c r="BK30" s="73"/>
+      <c r="BL30" s="73"/>
+      <c r="BM30" s="73"/>
+      <c r="BN30" s="73"/>
+      <c r="BO30" s="73"/>
       <c r="BP30" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ30" s="72"/>
-      <c r="BR30" s="72"/>
-      <c r="BS30" s="72"/>
-      <c r="BT30" s="72"/>
-      <c r="BU30" s="72"/>
-      <c r="BV30" s="72"/>
-      <c r="BW30" s="72"/>
-      <c r="BX30" s="72"/>
-      <c r="BY30" s="72"/>
-      <c r="BZ30" s="72"/>
-      <c r="CA30" s="72"/>
-      <c r="CB30" s="72"/>
-      <c r="CC30" s="72"/>
-      <c r="CD30" s="72"/>
-    </row>
-    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+      <c r="BQ30" s="73"/>
+      <c r="BR30" s="73"/>
+      <c r="BS30" s="73"/>
+      <c r="BT30" s="73"/>
+      <c r="BU30" s="73"/>
+      <c r="BV30" s="73"/>
+      <c r="BW30" s="73"/>
+      <c r="BX30" s="73"/>
+      <c r="BY30" s="73"/>
+      <c r="BZ30" s="73"/>
+      <c r="CA30" s="73"/>
+      <c r="CB30" s="73"/>
+      <c r="CC30" s="73"/>
+      <c r="CD30" s="73"/>
+    </row>
+    <row r="31" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -8939,90 +9516,90 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
-      <c r="I31" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73" t="s">
+      <c r="I31" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="73"/>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="73"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73">
-        <v>2</v>
-      </c>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
-      <c r="BS31" s="73"/>
-      <c r="BT31" s="73"/>
-      <c r="BU31" s="73"/>
-      <c r="BV31" s="73"/>
-      <c r="BW31" s="73"/>
-      <c r="BX31" s="73"/>
-      <c r="BY31" s="73"/>
-      <c r="BZ31" s="73"/>
-      <c r="CA31" s="73"/>
-      <c r="CB31" s="73"/>
-      <c r="CC31" s="73"/>
-      <c r="CD31" s="73"/>
-    </row>
-    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="72"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="72"/>
+      <c r="BA31" s="72"/>
+      <c r="BB31" s="72"/>
+      <c r="BC31" s="72"/>
+      <c r="BD31" s="72"/>
+      <c r="BE31" s="72"/>
+      <c r="BF31" s="72"/>
+      <c r="BG31" s="72"/>
+      <c r="BH31" s="72"/>
+      <c r="BI31" s="72"/>
+      <c r="BJ31" s="72"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="72"/>
+      <c r="BM31" s="72"/>
+      <c r="BN31" s="72"/>
+      <c r="BO31" s="72"/>
+      <c r="BP31" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ31" s="72"/>
+      <c r="BR31" s="72"/>
+      <c r="BS31" s="72"/>
+      <c r="BT31" s="72"/>
+      <c r="BU31" s="72"/>
+      <c r="BV31" s="72"/>
+      <c r="BW31" s="72"/>
+      <c r="BX31" s="72"/>
+      <c r="BY31" s="72"/>
+      <c r="BZ31" s="72"/>
+      <c r="CA31" s="72"/>
+      <c r="CB31" s="72"/>
+      <c r="CC31" s="72"/>
+      <c r="CD31" s="72"/>
+    </row>
+    <row r="32" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9030,88 +9607,90 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="I32" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="72"/>
-      <c r="AN32" s="72"/>
-      <c r="AO32" s="72"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="72"/>
-      <c r="BA32" s="72"/>
-      <c r="BB32" s="72"/>
-      <c r="BC32" s="72"/>
-      <c r="BD32" s="72"/>
-      <c r="BE32" s="72"/>
-      <c r="BF32" s="72"/>
-      <c r="BG32" s="72"/>
-      <c r="BH32" s="72"/>
-      <c r="BI32" s="72"/>
-      <c r="BJ32" s="72"/>
-      <c r="BK32" s="72"/>
-      <c r="BL32" s="72"/>
-      <c r="BM32" s="72"/>
-      <c r="BN32" s="72"/>
-      <c r="BO32" s="72"/>
-      <c r="BP32" s="72" t="s">
+      <c r="I32" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="BQ32" s="72"/>
-      <c r="BR32" s="72"/>
-      <c r="BS32" s="72"/>
-      <c r="BT32" s="72"/>
-      <c r="BU32" s="72"/>
-      <c r="BV32" s="72"/>
-      <c r="BW32" s="72"/>
-      <c r="BX32" s="72"/>
-      <c r="BY32" s="72"/>
-      <c r="BZ32" s="72"/>
-      <c r="CA32" s="72"/>
-      <c r="CB32" s="72"/>
-      <c r="CC32" s="72"/>
-      <c r="CD32" s="72"/>
-    </row>
-    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="73"/>
+      <c r="BB32" s="73"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
+      <c r="BK32" s="73"/>
+      <c r="BL32" s="73"/>
+      <c r="BM32" s="73"/>
+      <c r="BN32" s="73"/>
+      <c r="BO32" s="73"/>
+      <c r="BP32" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ32" s="73"/>
+      <c r="BR32" s="73"/>
+      <c r="BS32" s="73"/>
+      <c r="BT32" s="73"/>
+      <c r="BU32" s="73"/>
+      <c r="BV32" s="73"/>
+      <c r="BW32" s="73"/>
+      <c r="BX32" s="73"/>
+      <c r="BY32" s="73"/>
+      <c r="BZ32" s="73"/>
+      <c r="CA32" s="73"/>
+      <c r="CB32" s="73"/>
+      <c r="CC32" s="73"/>
+      <c r="CD32" s="73"/>
+    </row>
+    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -9119,90 +9698,90 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
-      <c r="I33" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
-      <c r="BL33" s="73"/>
-      <c r="BM33" s="73"/>
-      <c r="BN33" s="73"/>
-      <c r="BO33" s="73"/>
-      <c r="BP33" s="73">
-        <v>8</v>
-      </c>
-      <c r="BQ33" s="73"/>
-      <c r="BR33" s="73"/>
-      <c r="BS33" s="73"/>
-      <c r="BT33" s="73"/>
-      <c r="BU33" s="73"/>
-      <c r="BV33" s="73"/>
-      <c r="BW33" s="73"/>
-      <c r="BX33" s="73"/>
-      <c r="BY33" s="73"/>
-      <c r="BZ33" s="73"/>
-      <c r="CA33" s="73"/>
-      <c r="CB33" s="73"/>
-      <c r="CC33" s="73"/>
-      <c r="CD33" s="73"/>
-    </row>
-    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="72"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="72"/>
+      <c r="BA33" s="72"/>
+      <c r="BB33" s="72"/>
+      <c r="BC33" s="72"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
+      <c r="BG33" s="72"/>
+      <c r="BH33" s="72"/>
+      <c r="BI33" s="72"/>
+      <c r="BJ33" s="72"/>
+      <c r="BK33" s="72"/>
+      <c r="BL33" s="72"/>
+      <c r="BM33" s="72"/>
+      <c r="BN33" s="72"/>
+      <c r="BO33" s="72"/>
+      <c r="BP33" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ33" s="72"/>
+      <c r="BR33" s="72"/>
+      <c r="BS33" s="72"/>
+      <c r="BT33" s="72"/>
+      <c r="BU33" s="72"/>
+      <c r="BV33" s="72"/>
+      <c r="BW33" s="72"/>
+      <c r="BX33" s="72"/>
+      <c r="BY33" s="72"/>
+      <c r="BZ33" s="72"/>
+      <c r="CA33" s="72"/>
+      <c r="CB33" s="72"/>
+      <c r="CC33" s="72"/>
+      <c r="CD33" s="72"/>
+    </row>
+    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9210,82 +9789,90 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="72"/>
-      <c r="BA34" s="72"/>
-      <c r="BB34" s="72"/>
-      <c r="BC34" s="72"/>
-      <c r="BD34" s="72"/>
-      <c r="BE34" s="72"/>
-      <c r="BF34" s="72"/>
-      <c r="BG34" s="72"/>
-      <c r="BH34" s="72"/>
-      <c r="BI34" s="72"/>
-      <c r="BJ34" s="72"/>
-      <c r="BK34" s="72"/>
-      <c r="BL34" s="72"/>
-      <c r="BM34" s="72"/>
-      <c r="BN34" s="72"/>
-      <c r="BO34" s="72"/>
-      <c r="BP34" s="72"/>
-      <c r="BQ34" s="72"/>
-      <c r="BR34" s="72"/>
-      <c r="BS34" s="72"/>
-      <c r="BT34" s="72"/>
-      <c r="BU34" s="72"/>
-      <c r="BV34" s="72"/>
-      <c r="BW34" s="72"/>
-      <c r="BX34" s="72"/>
-      <c r="BY34" s="72"/>
-      <c r="BZ34" s="72"/>
-      <c r="CA34" s="72"/>
-      <c r="CB34" s="72"/>
-      <c r="CC34" s="72"/>
-      <c r="CD34" s="72"/>
-    </row>
-    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="73"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
+      <c r="BK34" s="73"/>
+      <c r="BL34" s="73"/>
+      <c r="BM34" s="73"/>
+      <c r="BN34" s="73"/>
+      <c r="BO34" s="73"/>
+      <c r="BP34" s="73">
+        <v>5</v>
+      </c>
+      <c r="BQ34" s="73"/>
+      <c r="BR34" s="73"/>
+      <c r="BS34" s="73"/>
+      <c r="BT34" s="73"/>
+      <c r="BU34" s="73"/>
+      <c r="BV34" s="73"/>
+      <c r="BW34" s="73"/>
+      <c r="BX34" s="73"/>
+      <c r="BY34" s="73"/>
+      <c r="BZ34" s="73"/>
+      <c r="CA34" s="73"/>
+      <c r="CB34" s="73"/>
+      <c r="CC34" s="73"/>
+      <c r="CD34" s="73"/>
+    </row>
+    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -9293,82 +9880,90 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="73"/>
-      <c r="BK35" s="73"/>
-      <c r="BL35" s="73"/>
-      <c r="BM35" s="73"/>
-      <c r="BN35" s="73"/>
-      <c r="BO35" s="73"/>
-      <c r="BP35" s="73"/>
-      <c r="BQ35" s="73"/>
-      <c r="BR35" s="73"/>
-      <c r="BS35" s="73"/>
-      <c r="BT35" s="73"/>
-      <c r="BU35" s="73"/>
-      <c r="BV35" s="73"/>
-      <c r="BW35" s="73"/>
-      <c r="BX35" s="73"/>
-      <c r="BY35" s="73"/>
-      <c r="BZ35" s="73"/>
-      <c r="CA35" s="73"/>
-      <c r="CB35" s="73"/>
-      <c r="CC35" s="73"/>
-      <c r="CD35" s="73"/>
-    </row>
-    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="72"/>
+      <c r="AN35" s="72"/>
+      <c r="AO35" s="72"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="72"/>
+      <c r="BA35" s="72"/>
+      <c r="BB35" s="72"/>
+      <c r="BC35" s="72"/>
+      <c r="BD35" s="72"/>
+      <c r="BE35" s="72"/>
+      <c r="BF35" s="72"/>
+      <c r="BG35" s="72"/>
+      <c r="BH35" s="72"/>
+      <c r="BI35" s="72"/>
+      <c r="BJ35" s="72"/>
+      <c r="BK35" s="72"/>
+      <c r="BL35" s="72"/>
+      <c r="BM35" s="72"/>
+      <c r="BN35" s="72"/>
+      <c r="BO35" s="72"/>
+      <c r="BP35" s="72">
+        <v>10</v>
+      </c>
+      <c r="BQ35" s="72"/>
+      <c r="BR35" s="72"/>
+      <c r="BS35" s="72"/>
+      <c r="BT35" s="72"/>
+      <c r="BU35" s="72"/>
+      <c r="BV35" s="72"/>
+      <c r="BW35" s="72"/>
+      <c r="BX35" s="72"/>
+      <c r="BY35" s="72"/>
+      <c r="BZ35" s="72"/>
+      <c r="CA35" s="72"/>
+      <c r="CB35" s="72"/>
+      <c r="CC35" s="72"/>
+      <c r="CD35" s="72"/>
+    </row>
+    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9376,82 +9971,90 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="72"/>
-      <c r="AM36" s="72"/>
-      <c r="AN36" s="72"/>
-      <c r="AO36" s="72"/>
-      <c r="AP36" s="72"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="72"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72"/>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="72"/>
-      <c r="BA36" s="72"/>
-      <c r="BB36" s="72"/>
-      <c r="BC36" s="72"/>
-      <c r="BD36" s="72"/>
-      <c r="BE36" s="72"/>
-      <c r="BF36" s="72"/>
-      <c r="BG36" s="72"/>
-      <c r="BH36" s="72"/>
-      <c r="BI36" s="72"/>
-      <c r="BJ36" s="72"/>
-      <c r="BK36" s="72"/>
-      <c r="BL36" s="72"/>
-      <c r="BM36" s="72"/>
-      <c r="BN36" s="72"/>
-      <c r="BO36" s="72"/>
-      <c r="BP36" s="72"/>
-      <c r="BQ36" s="72"/>
-      <c r="BR36" s="72"/>
-      <c r="BS36" s="72"/>
-      <c r="BT36" s="72"/>
-      <c r="BU36" s="72"/>
-      <c r="BV36" s="72"/>
-      <c r="BW36" s="72"/>
-      <c r="BX36" s="72"/>
-      <c r="BY36" s="72"/>
-      <c r="BZ36" s="72"/>
-      <c r="CA36" s="72"/>
-      <c r="CB36" s="72"/>
-      <c r="CC36" s="72"/>
-      <c r="CD36" s="72"/>
-    </row>
-    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
+      <c r="BK36" s="73"/>
+      <c r="BL36" s="73"/>
+      <c r="BM36" s="73"/>
+      <c r="BN36" s="73"/>
+      <c r="BO36" s="73"/>
+      <c r="BP36" s="73">
+        <v>8</v>
+      </c>
+      <c r="BQ36" s="73"/>
+      <c r="BR36" s="73"/>
+      <c r="BS36" s="73"/>
+      <c r="BT36" s="73"/>
+      <c r="BU36" s="73"/>
+      <c r="BV36" s="73"/>
+      <c r="BW36" s="73"/>
+      <c r="BX36" s="73"/>
+      <c r="BY36" s="73"/>
+      <c r="BZ36" s="73"/>
+      <c r="CA36" s="73"/>
+      <c r="CB36" s="73"/>
+      <c r="CC36" s="73"/>
+      <c r="CD36" s="73"/>
+    </row>
+    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -9459,8 +10062,82 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="72"/>
+      <c r="AM37" s="72"/>
+      <c r="AN37" s="72"/>
+      <c r="AO37" s="72"/>
+      <c r="AP37" s="72"/>
+      <c r="AQ37" s="72"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="72"/>
+      <c r="AV37" s="72"/>
+      <c r="AW37" s="72"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="72"/>
+      <c r="BA37" s="72"/>
+      <c r="BB37" s="72"/>
+      <c r="BC37" s="72"/>
+      <c r="BD37" s="72"/>
+      <c r="BE37" s="72"/>
+      <c r="BF37" s="72"/>
+      <c r="BG37" s="72"/>
+      <c r="BH37" s="72"/>
+      <c r="BI37" s="72"/>
+      <c r="BJ37" s="72"/>
+      <c r="BK37" s="72"/>
+      <c r="BL37" s="72"/>
+      <c r="BM37" s="72"/>
+      <c r="BN37" s="72"/>
+      <c r="BO37" s="72"/>
+      <c r="BP37" s="72"/>
+      <c r="BQ37" s="72"/>
+      <c r="BR37" s="72"/>
+      <c r="BS37" s="72"/>
+      <c r="BT37" s="72"/>
+      <c r="BU37" s="72"/>
+      <c r="BV37" s="72"/>
+      <c r="BW37" s="72"/>
+      <c r="BX37" s="72"/>
+      <c r="BY37" s="72"/>
+      <c r="BZ37" s="72"/>
+      <c r="CA37" s="72"/>
+      <c r="CB37" s="72"/>
+      <c r="CC37" s="72"/>
+      <c r="CD37" s="72"/>
+    </row>
+    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9468,8 +10145,82 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+      <c r="BN38" s="73"/>
+      <c r="BO38" s="73"/>
+      <c r="BP38" s="73"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="73"/>
+      <c r="BS38" s="73"/>
+      <c r="BT38" s="73"/>
+      <c r="BU38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="BW38" s="73"/>
+      <c r="BX38" s="73"/>
+      <c r="BY38" s="73"/>
+      <c r="BZ38" s="73"/>
+      <c r="CA38" s="73"/>
+      <c r="CB38" s="73"/>
+      <c r="CC38" s="73"/>
+      <c r="CD38" s="73"/>
+    </row>
+    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -9477,8 +10228,82 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="72"/>
+      <c r="BA39" s="72"/>
+      <c r="BB39" s="72"/>
+      <c r="BC39" s="72"/>
+      <c r="BD39" s="72"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="72"/>
+      <c r="BG39" s="72"/>
+      <c r="BH39" s="72"/>
+      <c r="BI39" s="72"/>
+      <c r="BJ39" s="72"/>
+      <c r="BK39" s="72"/>
+      <c r="BL39" s="72"/>
+      <c r="BM39" s="72"/>
+      <c r="BN39" s="72"/>
+      <c r="BO39" s="72"/>
+      <c r="BP39" s="72"/>
+      <c r="BQ39" s="72"/>
+      <c r="BR39" s="72"/>
+      <c r="BS39" s="72"/>
+      <c r="BT39" s="72"/>
+      <c r="BU39" s="72"/>
+      <c r="BV39" s="72"/>
+      <c r="BW39" s="72"/>
+      <c r="BX39" s="72"/>
+      <c r="BY39" s="72"/>
+      <c r="BZ39" s="72"/>
+      <c r="CA39" s="72"/>
+      <c r="CB39" s="72"/>
+      <c r="CC39" s="72"/>
+      <c r="CD39" s="72"/>
+    </row>
+    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9486,84 +10311,8 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="I40" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="64"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="64"/>
-      <c r="AO40" s="64"/>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="64"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="64"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="64"/>
-      <c r="BC40" s="64"/>
-      <c r="BD40" s="64"/>
-      <c r="BE40" s="64"/>
-      <c r="BF40" s="64"/>
-      <c r="BG40" s="64"/>
-      <c r="BH40" s="64"/>
-      <c r="BI40" s="64"/>
-      <c r="BJ40" s="64"/>
-      <c r="BK40" s="64"/>
-      <c r="BL40" s="64"/>
-      <c r="BM40" s="64"/>
-      <c r="BN40" s="64"/>
-      <c r="BO40" s="64"/>
-      <c r="BP40" s="64"/>
-      <c r="BQ40" s="64"/>
-      <c r="BR40" s="64"/>
-      <c r="BS40" s="64"/>
-      <c r="BT40" s="64"/>
-      <c r="BU40" s="64"/>
-      <c r="BV40" s="64"/>
-      <c r="BW40" s="64"/>
-      <c r="BX40" s="64"/>
-      <c r="BY40" s="64"/>
-      <c r="BZ40" s="64"/>
-      <c r="CA40" s="64"/>
-      <c r="CB40" s="64"/>
-      <c r="CC40" s="64"/>
-      <c r="CD40" s="65"/>
-    </row>
-    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -9571,82 +10320,8 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="81"/>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="81"/>
-      <c r="AI41" s="81"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="81"/>
-      <c r="AL41" s="81"/>
-      <c r="AM41" s="81"/>
-      <c r="AN41" s="81"/>
-      <c r="AO41" s="81"/>
-      <c r="AP41" s="81"/>
-      <c r="AQ41" s="81"/>
-      <c r="AR41" s="81"/>
-      <c r="AS41" s="81"/>
-      <c r="AT41" s="81"/>
-      <c r="AU41" s="81"/>
-      <c r="AV41" s="81"/>
-      <c r="AW41" s="81"/>
-      <c r="AX41" s="81"/>
-      <c r="AY41" s="81"/>
-      <c r="AZ41" s="81"/>
-      <c r="BA41" s="81"/>
-      <c r="BB41" s="81"/>
-      <c r="BC41" s="81"/>
-      <c r="BD41" s="81"/>
-      <c r="BE41" s="81"/>
-      <c r="BF41" s="81"/>
-      <c r="BG41" s="81"/>
-      <c r="BH41" s="81"/>
-      <c r="BI41" s="81"/>
-      <c r="BJ41" s="81"/>
-      <c r="BK41" s="81"/>
-      <c r="BL41" s="81"/>
-      <c r="BM41" s="81"/>
-      <c r="BN41" s="81"/>
-      <c r="BO41" s="81"/>
-      <c r="BP41" s="81"/>
-      <c r="BQ41" s="81"/>
-      <c r="BR41" s="81"/>
-      <c r="BS41" s="81"/>
-      <c r="BT41" s="81"/>
-      <c r="BU41" s="81"/>
-      <c r="BV41" s="81"/>
-      <c r="BW41" s="81"/>
-      <c r="BX41" s="81"/>
-      <c r="BY41" s="81"/>
-      <c r="BZ41" s="81"/>
-      <c r="CA41" s="81"/>
-      <c r="CB41" s="81"/>
-      <c r="CC41" s="81"/>
-      <c r="CD41" s="68"/>
-    </row>
-    <row r="42" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9654,82 +10329,8 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="70"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="70"/>
-      <c r="AO42" s="70"/>
-      <c r="AP42" s="70"/>
-      <c r="AQ42" s="70"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="70"/>
-      <c r="AT42" s="70"/>
-      <c r="AU42" s="70"/>
-      <c r="AV42" s="70"/>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70"/>
-      <c r="AZ42" s="70"/>
-      <c r="BA42" s="70"/>
-      <c r="BB42" s="70"/>
-      <c r="BC42" s="70"/>
-      <c r="BD42" s="70"/>
-      <c r="BE42" s="70"/>
-      <c r="BF42" s="70"/>
-      <c r="BG42" s="70"/>
-      <c r="BH42" s="70"/>
-      <c r="BI42" s="70"/>
-      <c r="BJ42" s="70"/>
-      <c r="BK42" s="70"/>
-      <c r="BL42" s="70"/>
-      <c r="BM42" s="70"/>
-      <c r="BN42" s="70"/>
-      <c r="BO42" s="70"/>
-      <c r="BP42" s="70"/>
-      <c r="BQ42" s="70"/>
-      <c r="BR42" s="70"/>
-      <c r="BS42" s="70"/>
-      <c r="BT42" s="70"/>
-      <c r="BU42" s="70"/>
-      <c r="BV42" s="70"/>
-      <c r="BW42" s="70"/>
-      <c r="BX42" s="70"/>
-      <c r="BY42" s="70"/>
-      <c r="BZ42" s="70"/>
-      <c r="CA42" s="70"/>
-      <c r="CB42" s="70"/>
-      <c r="CC42" s="70"/>
-      <c r="CD42" s="71"/>
-    </row>
-    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -9738,7 +10339,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9746,8 +10347,84 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I44" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="64"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="64"/>
+      <c r="AK44" s="64"/>
+      <c r="AL44" s="64"/>
+      <c r="AM44" s="64"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="64"/>
+      <c r="AP44" s="64"/>
+      <c r="AQ44" s="64"/>
+      <c r="AR44" s="64"/>
+      <c r="AS44" s="64"/>
+      <c r="AT44" s="64"/>
+      <c r="AU44" s="64"/>
+      <c r="AV44" s="64"/>
+      <c r="AW44" s="64"/>
+      <c r="AX44" s="64"/>
+      <c r="AY44" s="64"/>
+      <c r="AZ44" s="64"/>
+      <c r="BA44" s="64"/>
+      <c r="BB44" s="64"/>
+      <c r="BC44" s="64"/>
+      <c r="BD44" s="64"/>
+      <c r="BE44" s="64"/>
+      <c r="BF44" s="64"/>
+      <c r="BG44" s="64"/>
+      <c r="BH44" s="64"/>
+      <c r="BI44" s="64"/>
+      <c r="BJ44" s="64"/>
+      <c r="BK44" s="64"/>
+      <c r="BL44" s="64"/>
+      <c r="BM44" s="64"/>
+      <c r="BN44" s="64"/>
+      <c r="BO44" s="64"/>
+      <c r="BP44" s="64"/>
+      <c r="BQ44" s="64"/>
+      <c r="BR44" s="64"/>
+      <c r="BS44" s="64"/>
+      <c r="BT44" s="64"/>
+      <c r="BU44" s="64"/>
+      <c r="BV44" s="64"/>
+      <c r="BW44" s="64"/>
+      <c r="BX44" s="64"/>
+      <c r="BY44" s="64"/>
+      <c r="BZ44" s="64"/>
+      <c r="CA44" s="64"/>
+      <c r="CB44" s="64"/>
+      <c r="CC44" s="64"/>
+      <c r="CD44" s="65"/>
+    </row>
+    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -9755,8 +10432,82 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="66"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="81"/>
+      <c r="AF45" s="81"/>
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="81"/>
+      <c r="AI45" s="81"/>
+      <c r="AJ45" s="81"/>
+      <c r="AK45" s="81"/>
+      <c r="AL45" s="81"/>
+      <c r="AM45" s="81"/>
+      <c r="AN45" s="81"/>
+      <c r="AO45" s="81"/>
+      <c r="AP45" s="81"/>
+      <c r="AQ45" s="81"/>
+      <c r="AR45" s="81"/>
+      <c r="AS45" s="81"/>
+      <c r="AT45" s="81"/>
+      <c r="AU45" s="81"/>
+      <c r="AV45" s="81"/>
+      <c r="AW45" s="81"/>
+      <c r="AX45" s="81"/>
+      <c r="AY45" s="81"/>
+      <c r="AZ45" s="81"/>
+      <c r="BA45" s="81"/>
+      <c r="BB45" s="81"/>
+      <c r="BC45" s="81"/>
+      <c r="BD45" s="81"/>
+      <c r="BE45" s="81"/>
+      <c r="BF45" s="81"/>
+      <c r="BG45" s="81"/>
+      <c r="BH45" s="81"/>
+      <c r="BI45" s="81"/>
+      <c r="BJ45" s="81"/>
+      <c r="BK45" s="81"/>
+      <c r="BL45" s="81"/>
+      <c r="BM45" s="81"/>
+      <c r="BN45" s="81"/>
+      <c r="BO45" s="81"/>
+      <c r="BP45" s="81"/>
+      <c r="BQ45" s="81"/>
+      <c r="BR45" s="81"/>
+      <c r="BS45" s="81"/>
+      <c r="BT45" s="81"/>
+      <c r="BU45" s="81"/>
+      <c r="BV45" s="81"/>
+      <c r="BW45" s="81"/>
+      <c r="BX45" s="81"/>
+      <c r="BY45" s="81"/>
+      <c r="BZ45" s="81"/>
+      <c r="CA45" s="81"/>
+      <c r="CB45" s="81"/>
+      <c r="CC45" s="81"/>
+      <c r="CD45" s="68"/>
+    </row>
+    <row r="46" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9764,8 +10515,82 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="69"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="70"/>
+      <c r="AH46" s="70"/>
+      <c r="AI46" s="70"/>
+      <c r="AJ46" s="70"/>
+      <c r="AK46" s="70"/>
+      <c r="AL46" s="70"/>
+      <c r="AM46" s="70"/>
+      <c r="AN46" s="70"/>
+      <c r="AO46" s="70"/>
+      <c r="AP46" s="70"/>
+      <c r="AQ46" s="70"/>
+      <c r="AR46" s="70"/>
+      <c r="AS46" s="70"/>
+      <c r="AT46" s="70"/>
+      <c r="AU46" s="70"/>
+      <c r="AV46" s="70"/>
+      <c r="AW46" s="70"/>
+      <c r="AX46" s="70"/>
+      <c r="AY46" s="70"/>
+      <c r="AZ46" s="70"/>
+      <c r="BA46" s="70"/>
+      <c r="BB46" s="70"/>
+      <c r="BC46" s="70"/>
+      <c r="BD46" s="70"/>
+      <c r="BE46" s="70"/>
+      <c r="BF46" s="70"/>
+      <c r="BG46" s="70"/>
+      <c r="BH46" s="70"/>
+      <c r="BI46" s="70"/>
+      <c r="BJ46" s="70"/>
+      <c r="BK46" s="70"/>
+      <c r="BL46" s="70"/>
+      <c r="BM46" s="70"/>
+      <c r="BN46" s="70"/>
+      <c r="BO46" s="70"/>
+      <c r="BP46" s="70"/>
+      <c r="BQ46" s="70"/>
+      <c r="BR46" s="70"/>
+      <c r="BS46" s="70"/>
+      <c r="BT46" s="70"/>
+      <c r="BU46" s="70"/>
+      <c r="BV46" s="70"/>
+      <c r="BW46" s="70"/>
+      <c r="BX46" s="70"/>
+      <c r="BY46" s="70"/>
+      <c r="BZ46" s="70"/>
+      <c r="CA46" s="70"/>
+      <c r="CB46" s="70"/>
+      <c r="CC46" s="70"/>
+      <c r="CD46" s="71"/>
+    </row>
+    <row r="47" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -9774,7 +10599,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9783,7 +10608,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -9792,7 +10617,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9801,7 +10626,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -9810,893 +10635,1253 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="57" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="58" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I58" s="82" t="s">
+    <row r="52" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="61" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="62" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I62" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="82"/>
-      <c r="V58" s="83" t="s">
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="82"/>
+      <c r="P62" s="82"/>
+      <c r="Q62" s="82"/>
+      <c r="R62" s="82"/>
+      <c r="S62" s="82"/>
+      <c r="T62" s="82"/>
+      <c r="U62" s="82"/>
+      <c r="V62" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="W58" s="84"/>
-      <c r="X58" s="84"/>
-      <c r="Y58" s="84"/>
-      <c r="Z58" s="84"/>
-      <c r="AA58" s="84"/>
-      <c r="AB58" s="84"/>
-      <c r="AC58" s="84"/>
-      <c r="AD58" s="84"/>
-      <c r="AE58" s="85"/>
-      <c r="AF58" s="84" t="s">
+      <c r="W62" s="84"/>
+      <c r="X62" s="84"/>
+      <c r="Y62" s="84"/>
+      <c r="Z62" s="84"/>
+      <c r="AA62" s="84"/>
+      <c r="AB62" s="84"/>
+      <c r="AC62" s="84"/>
+      <c r="AD62" s="84"/>
+      <c r="AE62" s="85"/>
+      <c r="AF62" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="AG58" s="84"/>
-      <c r="AH58" s="84"/>
-      <c r="AI58" s="84"/>
-      <c r="AJ58" s="84"/>
-      <c r="AK58" s="84"/>
-      <c r="AL58" s="84"/>
-      <c r="AM58" s="84"/>
-      <c r="AN58" s="84"/>
-      <c r="AO58" s="84"/>
-      <c r="AP58" s="84"/>
-      <c r="AQ58" s="84"/>
-      <c r="AR58" s="84"/>
-      <c r="AS58" s="84"/>
-      <c r="AT58" s="84"/>
-      <c r="AU58" s="84"/>
-      <c r="AV58" s="84"/>
-      <c r="AW58" s="84"/>
-      <c r="AX58" s="84"/>
-      <c r="AY58" s="84"/>
-      <c r="AZ58" s="84"/>
-      <c r="BA58" s="84"/>
-      <c r="BB58" s="84"/>
-      <c r="BC58" s="84"/>
-      <c r="BD58" s="84"/>
-      <c r="BE58" s="84"/>
-      <c r="BF58" s="84"/>
-      <c r="BG58" s="84"/>
-      <c r="BH58" s="84"/>
-      <c r="BI58" s="84"/>
-      <c r="BJ58" s="84"/>
-      <c r="BK58" s="84"/>
-      <c r="BL58" s="84"/>
-      <c r="BM58" s="84"/>
-      <c r="BN58" s="84"/>
-      <c r="BO58" s="85"/>
-      <c r="BP58" s="82" t="s">
+      <c r="AG62" s="84"/>
+      <c r="AH62" s="84"/>
+      <c r="AI62" s="84"/>
+      <c r="AJ62" s="84"/>
+      <c r="AK62" s="84"/>
+      <c r="AL62" s="84"/>
+      <c r="AM62" s="84"/>
+      <c r="AN62" s="84"/>
+      <c r="AO62" s="84"/>
+      <c r="AP62" s="84"/>
+      <c r="AQ62" s="84"/>
+      <c r="AR62" s="84"/>
+      <c r="AS62" s="84"/>
+      <c r="AT62" s="84"/>
+      <c r="AU62" s="84"/>
+      <c r="AV62" s="84"/>
+      <c r="AW62" s="84"/>
+      <c r="AX62" s="84"/>
+      <c r="AY62" s="84"/>
+      <c r="AZ62" s="84"/>
+      <c r="BA62" s="84"/>
+      <c r="BB62" s="84"/>
+      <c r="BC62" s="84"/>
+      <c r="BD62" s="84"/>
+      <c r="BE62" s="84"/>
+      <c r="BF62" s="84"/>
+      <c r="BG62" s="84"/>
+      <c r="BH62" s="84"/>
+      <c r="BI62" s="84"/>
+      <c r="BJ62" s="84"/>
+      <c r="BK62" s="84"/>
+      <c r="BL62" s="84"/>
+      <c r="BM62" s="84"/>
+      <c r="BN62" s="84"/>
+      <c r="BO62" s="85"/>
+      <c r="BP62" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ62" s="82"/>
+      <c r="BR62" s="82"/>
+      <c r="BS62" s="82"/>
+      <c r="BT62" s="82"/>
+      <c r="BU62" s="82"/>
+      <c r="BV62" s="82"/>
+      <c r="BW62" s="82"/>
+      <c r="BX62" s="82"/>
+      <c r="BY62" s="82"/>
+      <c r="BZ62" s="82"/>
+      <c r="CA62" s="82"/>
+      <c r="CB62" s="82"/>
+      <c r="CC62" s="82"/>
+      <c r="CD62" s="82"/>
+    </row>
+    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="80"/>
+      <c r="V63" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
+      <c r="Z63" s="80"/>
+      <c r="AA63" s="80"/>
+      <c r="AB63" s="80"/>
+      <c r="AC63" s="80"/>
+      <c r="AD63" s="80"/>
+      <c r="AE63" s="80"/>
+      <c r="AF63" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG63" s="80"/>
+      <c r="AH63" s="80"/>
+      <c r="AI63" s="80"/>
+      <c r="AJ63" s="80"/>
+      <c r="AK63" s="80"/>
+      <c r="AL63" s="80"/>
+      <c r="AM63" s="80"/>
+      <c r="AN63" s="80"/>
+      <c r="AO63" s="80"/>
+      <c r="AP63" s="80"/>
+      <c r="AQ63" s="80"/>
+      <c r="AR63" s="80"/>
+      <c r="AS63" s="80"/>
+      <c r="AT63" s="80"/>
+      <c r="AU63" s="80"/>
+      <c r="AV63" s="80"/>
+      <c r="AW63" s="80"/>
+      <c r="AX63" s="80"/>
+      <c r="AY63" s="80"/>
+      <c r="AZ63" s="80"/>
+      <c r="BA63" s="80"/>
+      <c r="BB63" s="80"/>
+      <c r="BC63" s="80"/>
+      <c r="BD63" s="80"/>
+      <c r="BE63" s="80"/>
+      <c r="BF63" s="80"/>
+      <c r="BG63" s="80"/>
+      <c r="BH63" s="80"/>
+      <c r="BI63" s="80"/>
+      <c r="BJ63" s="80"/>
+      <c r="BK63" s="80"/>
+      <c r="BL63" s="80"/>
+      <c r="BM63" s="80"/>
+      <c r="BN63" s="80"/>
+      <c r="BO63" s="80"/>
+      <c r="BP63" s="73"/>
+      <c r="BQ63" s="73"/>
+      <c r="BR63" s="73"/>
+      <c r="BS63" s="73"/>
+      <c r="BT63" s="73"/>
+      <c r="BU63" s="73"/>
+      <c r="BV63" s="73"/>
+      <c r="BW63" s="73"/>
+      <c r="BX63" s="73"/>
+      <c r="BY63" s="73"/>
+      <c r="BZ63" s="73"/>
+      <c r="CA63" s="73"/>
+      <c r="CB63" s="73"/>
+      <c r="CC63" s="73"/>
+      <c r="CD63" s="73"/>
+    </row>
+    <row r="64" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72"/>
+      <c r="Y64" s="72"/>
+      <c r="Z64" s="72"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG64" s="72"/>
+      <c r="AH64" s="72"/>
+      <c r="AI64" s="72"/>
+      <c r="AJ64" s="72"/>
+      <c r="AK64" s="72"/>
+      <c r="AL64" s="72"/>
+      <c r="AM64" s="72"/>
+      <c r="AN64" s="72"/>
+      <c r="AO64" s="72"/>
+      <c r="AP64" s="72"/>
+      <c r="AQ64" s="72"/>
+      <c r="AR64" s="72"/>
+      <c r="AS64" s="72"/>
+      <c r="AT64" s="72"/>
+      <c r="AU64" s="72"/>
+      <c r="AV64" s="72"/>
+      <c r="AW64" s="72"/>
+      <c r="AX64" s="72"/>
+      <c r="AY64" s="72"/>
+      <c r="AZ64" s="72"/>
+      <c r="BA64" s="72"/>
+      <c r="BB64" s="72"/>
+      <c r="BC64" s="72"/>
+      <c r="BD64" s="72"/>
+      <c r="BE64" s="72"/>
+      <c r="BF64" s="72"/>
+      <c r="BG64" s="72"/>
+      <c r="BH64" s="72"/>
+      <c r="BI64" s="72"/>
+      <c r="BJ64" s="72"/>
+      <c r="BK64" s="72"/>
+      <c r="BL64" s="72"/>
+      <c r="BM64" s="72"/>
+      <c r="BN64" s="72"/>
+      <c r="BO64" s="72"/>
+      <c r="BP64" s="72"/>
+      <c r="BQ64" s="72"/>
+      <c r="BR64" s="72"/>
+      <c r="BS64" s="72"/>
+      <c r="BT64" s="72"/>
+      <c r="BU64" s="72"/>
+      <c r="BV64" s="72"/>
+      <c r="BW64" s="72"/>
+      <c r="BX64" s="72"/>
+      <c r="BY64" s="72"/>
+      <c r="BZ64" s="72"/>
+      <c r="CA64" s="72"/>
+      <c r="CB64" s="72"/>
+      <c r="CC64" s="72"/>
+      <c r="CD64" s="72"/>
+    </row>
+    <row r="65" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+      <c r="AC65" s="73"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
+      <c r="AI65" s="73"/>
+      <c r="AJ65" s="73"/>
+      <c r="AK65" s="73"/>
+      <c r="AL65" s="73"/>
+      <c r="AM65" s="73"/>
+      <c r="AN65" s="73"/>
+      <c r="AO65" s="73"/>
+      <c r="AP65" s="73"/>
+      <c r="AQ65" s="73"/>
+      <c r="AR65" s="73"/>
+      <c r="AS65" s="73"/>
+      <c r="AT65" s="73"/>
+      <c r="AU65" s="73"/>
+      <c r="AV65" s="73"/>
+      <c r="AW65" s="73"/>
+      <c r="AX65" s="73"/>
+      <c r="AY65" s="73"/>
+      <c r="AZ65" s="73"/>
+      <c r="BA65" s="73"/>
+      <c r="BB65" s="73"/>
+      <c r="BC65" s="73"/>
+      <c r="BD65" s="73"/>
+      <c r="BE65" s="73"/>
+      <c r="BF65" s="73"/>
+      <c r="BG65" s="73"/>
+      <c r="BH65" s="73"/>
+      <c r="BI65" s="73"/>
+      <c r="BJ65" s="73"/>
+      <c r="BK65" s="73"/>
+      <c r="BL65" s="73"/>
+      <c r="BM65" s="73"/>
+      <c r="BN65" s="73"/>
+      <c r="BO65" s="73"/>
+      <c r="BP65" s="73"/>
+      <c r="BQ65" s="73"/>
+      <c r="BR65" s="73"/>
+      <c r="BS65" s="73"/>
+      <c r="BT65" s="73"/>
+      <c r="BU65" s="73"/>
+      <c r="BV65" s="73"/>
+      <c r="BW65" s="73"/>
+      <c r="BX65" s="73"/>
+      <c r="BY65" s="73"/>
+      <c r="BZ65" s="73"/>
+      <c r="CA65" s="73"/>
+      <c r="CB65" s="73"/>
+      <c r="CC65" s="73"/>
+      <c r="CD65" s="73"/>
+    </row>
+    <row r="66" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="72"/>
+      <c r="U66" s="72"/>
+      <c r="V66" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="W66" s="72"/>
+      <c r="X66" s="72"/>
+      <c r="Y66" s="72"/>
+      <c r="Z66" s="72"/>
+      <c r="AA66" s="72"/>
+      <c r="AB66" s="72"/>
+      <c r="AC66" s="72"/>
+      <c r="AD66" s="72"/>
+      <c r="AE66" s="72"/>
+      <c r="AF66" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG66" s="72"/>
+      <c r="AH66" s="72"/>
+      <c r="AI66" s="72"/>
+      <c r="AJ66" s="72"/>
+      <c r="AK66" s="72"/>
+      <c r="AL66" s="72"/>
+      <c r="AM66" s="72"/>
+      <c r="AN66" s="72"/>
+      <c r="AO66" s="72"/>
+      <c r="AP66" s="72"/>
+      <c r="AQ66" s="72"/>
+      <c r="AR66" s="72"/>
+      <c r="AS66" s="72"/>
+      <c r="AT66" s="72"/>
+      <c r="AU66" s="72"/>
+      <c r="AV66" s="72"/>
+      <c r="AW66" s="72"/>
+      <c r="AX66" s="72"/>
+      <c r="AY66" s="72"/>
+      <c r="AZ66" s="72"/>
+      <c r="BA66" s="72"/>
+      <c r="BB66" s="72"/>
+      <c r="BC66" s="72"/>
+      <c r="BD66" s="72"/>
+      <c r="BE66" s="72"/>
+      <c r="BF66" s="72"/>
+      <c r="BG66" s="72"/>
+      <c r="BH66" s="72"/>
+      <c r="BI66" s="72"/>
+      <c r="BJ66" s="72"/>
+      <c r="BK66" s="72"/>
+      <c r="BL66" s="72"/>
+      <c r="BM66" s="72"/>
+      <c r="BN66" s="72"/>
+      <c r="BO66" s="72"/>
+      <c r="BP66" s="72"/>
+      <c r="BQ66" s="72"/>
+      <c r="BR66" s="72"/>
+      <c r="BS66" s="72"/>
+      <c r="BT66" s="72"/>
+      <c r="BU66" s="72"/>
+      <c r="BV66" s="72"/>
+      <c r="BW66" s="72"/>
+      <c r="BX66" s="72"/>
+      <c r="BY66" s="72"/>
+      <c r="BZ66" s="72"/>
+      <c r="CA66" s="72"/>
+      <c r="CB66" s="72"/>
+      <c r="CC66" s="72"/>
+      <c r="CD66" s="72"/>
+    </row>
+    <row r="67" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="BQ58" s="82"/>
-      <c r="BR58" s="82"/>
-      <c r="BS58" s="82"/>
-      <c r="BT58" s="82"/>
-      <c r="BU58" s="82"/>
-      <c r="BV58" s="82"/>
-      <c r="BW58" s="82"/>
-      <c r="BX58" s="82"/>
-      <c r="BY58" s="82"/>
-      <c r="BZ58" s="82"/>
-      <c r="CA58" s="82"/>
-      <c r="CB58" s="82"/>
-      <c r="CC58" s="82"/>
-      <c r="CD58" s="82"/>
-    </row>
-    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I59" s="80" t="s">
+      <c r="W67" s="73"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="73"/>
+      <c r="Z67" s="73"/>
+      <c r="AA67" s="73"/>
+      <c r="AB67" s="73"/>
+      <c r="AC67" s="73"/>
+      <c r="AD67" s="73"/>
+      <c r="AE67" s="73"/>
+      <c r="AF67" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG67" s="73"/>
+      <c r="AH67" s="73"/>
+      <c r="AI67" s="73"/>
+      <c r="AJ67" s="73"/>
+      <c r="AK67" s="73"/>
+      <c r="AL67" s="73"/>
+      <c r="AM67" s="73"/>
+      <c r="AN67" s="73"/>
+      <c r="AO67" s="73"/>
+      <c r="AP67" s="73"/>
+      <c r="AQ67" s="73"/>
+      <c r="AR67" s="73"/>
+      <c r="AS67" s="73"/>
+      <c r="AT67" s="73"/>
+      <c r="AU67" s="73"/>
+      <c r="AV67" s="73"/>
+      <c r="AW67" s="73"/>
+      <c r="AX67" s="73"/>
+      <c r="AY67" s="73"/>
+      <c r="AZ67" s="73"/>
+      <c r="BA67" s="73"/>
+      <c r="BB67" s="73"/>
+      <c r="BC67" s="73"/>
+      <c r="BD67" s="73"/>
+      <c r="BE67" s="73"/>
+      <c r="BF67" s="73"/>
+      <c r="BG67" s="73"/>
+      <c r="BH67" s="73"/>
+      <c r="BI67" s="73"/>
+      <c r="BJ67" s="73"/>
+      <c r="BK67" s="73"/>
+      <c r="BL67" s="73"/>
+      <c r="BM67" s="73"/>
+      <c r="BN67" s="73"/>
+      <c r="BO67" s="73"/>
+      <c r="BP67" s="73"/>
+      <c r="BQ67" s="73"/>
+      <c r="BR67" s="73"/>
+      <c r="BS67" s="73"/>
+      <c r="BT67" s="73"/>
+      <c r="BU67" s="73"/>
+      <c r="BV67" s="73"/>
+      <c r="BW67" s="73"/>
+      <c r="BX67" s="73"/>
+      <c r="BY67" s="73"/>
+      <c r="BZ67" s="73"/>
+      <c r="CA67" s="73"/>
+      <c r="CB67" s="73"/>
+      <c r="CC67" s="73"/>
+      <c r="CD67" s="73"/>
+    </row>
+    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="W68" s="72"/>
+      <c r="X68" s="72"/>
+      <c r="Y68" s="72"/>
+      <c r="Z68" s="72"/>
+      <c r="AA68" s="72"/>
+      <c r="AB68" s="72"/>
+      <c r="AC68" s="72"/>
+      <c r="AD68" s="72"/>
+      <c r="AE68" s="72"/>
+      <c r="AF68" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG68" s="72"/>
+      <c r="AH68" s="72"/>
+      <c r="AI68" s="72"/>
+      <c r="AJ68" s="72"/>
+      <c r="AK68" s="72"/>
+      <c r="AL68" s="72"/>
+      <c r="AM68" s="72"/>
+      <c r="AN68" s="72"/>
+      <c r="AO68" s="72"/>
+      <c r="AP68" s="72"/>
+      <c r="AQ68" s="72"/>
+      <c r="AR68" s="72"/>
+      <c r="AS68" s="72"/>
+      <c r="AT68" s="72"/>
+      <c r="AU68" s="72"/>
+      <c r="AV68" s="72"/>
+      <c r="AW68" s="72"/>
+      <c r="AX68" s="72"/>
+      <c r="AY68" s="72"/>
+      <c r="AZ68" s="72"/>
+      <c r="BA68" s="72"/>
+      <c r="BB68" s="72"/>
+      <c r="BC68" s="72"/>
+      <c r="BD68" s="72"/>
+      <c r="BE68" s="72"/>
+      <c r="BF68" s="72"/>
+      <c r="BG68" s="72"/>
+      <c r="BH68" s="72"/>
+      <c r="BI68" s="72"/>
+      <c r="BJ68" s="72"/>
+      <c r="BK68" s="72"/>
+      <c r="BL68" s="72"/>
+      <c r="BM68" s="72"/>
+      <c r="BN68" s="72"/>
+      <c r="BO68" s="72"/>
+      <c r="BP68" s="72"/>
+      <c r="BQ68" s="72"/>
+      <c r="BR68" s="72"/>
+      <c r="BS68" s="72"/>
+      <c r="BT68" s="72"/>
+      <c r="BU68" s="72"/>
+      <c r="BV68" s="72"/>
+      <c r="BW68" s="72"/>
+      <c r="BX68" s="72"/>
+      <c r="BY68" s="72"/>
+      <c r="BZ68" s="72"/>
+      <c r="CA68" s="72"/>
+      <c r="CB68" s="72"/>
+      <c r="CC68" s="72"/>
+      <c r="CD68" s="72"/>
+    </row>
+    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="76"/>
+      <c r="V69" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="W69" s="75"/>
+      <c r="X69" s="75"/>
+      <c r="Y69" s="75"/>
+      <c r="Z69" s="75"/>
+      <c r="AA69" s="75"/>
+      <c r="AB69" s="75"/>
+      <c r="AC69" s="75"/>
+      <c r="AD69" s="75"/>
+      <c r="AE69" s="76"/>
+      <c r="AF69" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG69" s="75"/>
+      <c r="AH69" s="75"/>
+      <c r="AI69" s="75"/>
+      <c r="AJ69" s="75"/>
+      <c r="AK69" s="75"/>
+      <c r="AL69" s="75"/>
+      <c r="AM69" s="75"/>
+      <c r="AN69" s="75"/>
+      <c r="AO69" s="75"/>
+      <c r="AP69" s="75"/>
+      <c r="AQ69" s="75"/>
+      <c r="AR69" s="75"/>
+      <c r="AS69" s="75"/>
+      <c r="AT69" s="75"/>
+      <c r="AU69" s="75"/>
+      <c r="AV69" s="75"/>
+      <c r="AW69" s="75"/>
+      <c r="AX69" s="75"/>
+      <c r="AY69" s="75"/>
+      <c r="AZ69" s="75"/>
+      <c r="BA69" s="75"/>
+      <c r="BB69" s="75"/>
+      <c r="BC69" s="75"/>
+      <c r="BD69" s="75"/>
+      <c r="BE69" s="75"/>
+      <c r="BF69" s="75"/>
+      <c r="BG69" s="75"/>
+      <c r="BH69" s="75"/>
+      <c r="BI69" s="75"/>
+      <c r="BJ69" s="75"/>
+      <c r="BK69" s="75"/>
+      <c r="BL69" s="75"/>
+      <c r="BM69" s="75"/>
+      <c r="BN69" s="75"/>
+      <c r="BO69" s="76"/>
+      <c r="BP69" s="73"/>
+      <c r="BQ69" s="73"/>
+      <c r="BR69" s="73"/>
+      <c r="BS69" s="73"/>
+      <c r="BT69" s="73"/>
+      <c r="BU69" s="73"/>
+      <c r="BV69" s="73"/>
+      <c r="BW69" s="73"/>
+      <c r="BX69" s="73"/>
+      <c r="BY69" s="73"/>
+      <c r="BZ69" s="73"/>
+      <c r="CA69" s="73"/>
+      <c r="CB69" s="73"/>
+      <c r="CC69" s="73"/>
+      <c r="CD69" s="73"/>
+    </row>
+    <row r="70" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="W70" s="78"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="78"/>
+      <c r="AD70" s="78"/>
+      <c r="AE70" s="79"/>
+      <c r="AF70" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG70" s="78"/>
+      <c r="AH70" s="78"/>
+      <c r="AI70" s="78"/>
+      <c r="AJ70" s="78"/>
+      <c r="AK70" s="78"/>
+      <c r="AL70" s="78"/>
+      <c r="AM70" s="78"/>
+      <c r="AN70" s="78"/>
+      <c r="AO70" s="78"/>
+      <c r="AP70" s="78"/>
+      <c r="AQ70" s="78"/>
+      <c r="AR70" s="78"/>
+      <c r="AS70" s="78"/>
+      <c r="AT70" s="78"/>
+      <c r="AU70" s="78"/>
+      <c r="AV70" s="78"/>
+      <c r="AW70" s="78"/>
+      <c r="AX70" s="78"/>
+      <c r="AY70" s="78"/>
+      <c r="AZ70" s="78"/>
+      <c r="BA70" s="78"/>
+      <c r="BB70" s="78"/>
+      <c r="BC70" s="78"/>
+      <c r="BD70" s="78"/>
+      <c r="BE70" s="78"/>
+      <c r="BF70" s="78"/>
+      <c r="BG70" s="78"/>
+      <c r="BH70" s="78"/>
+      <c r="BI70" s="78"/>
+      <c r="BJ70" s="78"/>
+      <c r="BK70" s="78"/>
+      <c r="BL70" s="78"/>
+      <c r="BM70" s="78"/>
+      <c r="BN70" s="78"/>
+      <c r="BO70" s="79"/>
+      <c r="BP70" s="72"/>
+      <c r="BQ70" s="72"/>
+      <c r="BR70" s="72"/>
+      <c r="BS70" s="72"/>
+      <c r="BT70" s="72"/>
+      <c r="BU70" s="72"/>
+      <c r="BV70" s="72"/>
+      <c r="BW70" s="72"/>
+      <c r="BX70" s="72"/>
+      <c r="BY70" s="72"/>
+      <c r="BZ70" s="72"/>
+      <c r="CA70" s="72"/>
+      <c r="CB70" s="72"/>
+      <c r="CC70" s="72"/>
+      <c r="CD70" s="72"/>
+    </row>
+    <row r="71" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="W71" s="73"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="73"/>
+      <c r="AD71" s="73"/>
+      <c r="AE71" s="73"/>
+      <c r="AF71" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG71" s="75"/>
+      <c r="AH71" s="75"/>
+      <c r="AI71" s="75"/>
+      <c r="AJ71" s="75"/>
+      <c r="AK71" s="75"/>
+      <c r="AL71" s="75"/>
+      <c r="AM71" s="75"/>
+      <c r="AN71" s="75"/>
+      <c r="AO71" s="75"/>
+      <c r="AP71" s="75"/>
+      <c r="AQ71" s="75"/>
+      <c r="AR71" s="75"/>
+      <c r="AS71" s="75"/>
+      <c r="AT71" s="75"/>
+      <c r="AU71" s="75"/>
+      <c r="AV71" s="75"/>
+      <c r="AW71" s="75"/>
+      <c r="AX71" s="75"/>
+      <c r="AY71" s="75"/>
+      <c r="AZ71" s="75"/>
+      <c r="BA71" s="75"/>
+      <c r="BB71" s="75"/>
+      <c r="BC71" s="75"/>
+      <c r="BD71" s="75"/>
+      <c r="BE71" s="75"/>
+      <c r="BF71" s="75"/>
+      <c r="BG71" s="75"/>
+      <c r="BH71" s="75"/>
+      <c r="BI71" s="75"/>
+      <c r="BJ71" s="75"/>
+      <c r="BK71" s="75"/>
+      <c r="BL71" s="75"/>
+      <c r="BM71" s="75"/>
+      <c r="BN71" s="75"/>
+      <c r="BO71" s="76"/>
+      <c r="BP71" s="73"/>
+      <c r="BQ71" s="73"/>
+      <c r="BR71" s="73"/>
+      <c r="BS71" s="73"/>
+      <c r="BT71" s="73"/>
+      <c r="BU71" s="73"/>
+      <c r="BV71" s="73"/>
+      <c r="BW71" s="73"/>
+      <c r="BX71" s="73"/>
+      <c r="BY71" s="73"/>
+      <c r="BZ71" s="73"/>
+      <c r="CA71" s="73"/>
+      <c r="CB71" s="73"/>
+      <c r="CC71" s="73"/>
+      <c r="CD71" s="73"/>
+    </row>
+    <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
-      <c r="Z59" s="80"/>
-      <c r="AA59" s="80"/>
-      <c r="AB59" s="80"/>
-      <c r="AC59" s="80"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="80"/>
-      <c r="AF59" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG59" s="80"/>
-      <c r="AH59" s="80"/>
-      <c r="AI59" s="80"/>
-      <c r="AJ59" s="80"/>
-      <c r="AK59" s="80"/>
-      <c r="AL59" s="80"/>
-      <c r="AM59" s="80"/>
-      <c r="AN59" s="80"/>
-      <c r="AO59" s="80"/>
-      <c r="AP59" s="80"/>
-      <c r="AQ59" s="80"/>
-      <c r="AR59" s="80"/>
-      <c r="AS59" s="80"/>
-      <c r="AT59" s="80"/>
-      <c r="AU59" s="80"/>
-      <c r="AV59" s="80"/>
-      <c r="AW59" s="80"/>
-      <c r="AX59" s="80"/>
-      <c r="AY59" s="80"/>
-      <c r="AZ59" s="80"/>
-      <c r="BA59" s="80"/>
-      <c r="BB59" s="80"/>
-      <c r="BC59" s="80"/>
-      <c r="BD59" s="80"/>
-      <c r="BE59" s="80"/>
-      <c r="BF59" s="80"/>
-      <c r="BG59" s="80"/>
-      <c r="BH59" s="80"/>
-      <c r="BI59" s="80"/>
-      <c r="BJ59" s="80"/>
-      <c r="BK59" s="80"/>
-      <c r="BL59" s="80"/>
-      <c r="BM59" s="80"/>
-      <c r="BN59" s="80"/>
-      <c r="BO59" s="80"/>
-      <c r="BP59" s="72"/>
-      <c r="BQ59" s="72"/>
-      <c r="BR59" s="72"/>
-      <c r="BS59" s="72"/>
-      <c r="BT59" s="72"/>
-      <c r="BU59" s="72"/>
-      <c r="BV59" s="72"/>
-      <c r="BW59" s="72"/>
-      <c r="BX59" s="72"/>
-      <c r="BY59" s="72"/>
-      <c r="BZ59" s="72"/>
-      <c r="CA59" s="72"/>
-      <c r="CB59" s="72"/>
-      <c r="CC59" s="72"/>
-      <c r="CD59" s="72"/>
-    </row>
-    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I60" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="73"/>
-      <c r="AE60" s="73"/>
-      <c r="AF60" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG60" s="73"/>
-      <c r="AH60" s="73"/>
-      <c r="AI60" s="73"/>
-      <c r="AJ60" s="73"/>
-      <c r="AK60" s="73"/>
-      <c r="AL60" s="73"/>
-      <c r="AM60" s="73"/>
-      <c r="AN60" s="73"/>
-      <c r="AO60" s="73"/>
-      <c r="AP60" s="73"/>
-      <c r="AQ60" s="73"/>
-      <c r="AR60" s="73"/>
-      <c r="AS60" s="73"/>
-      <c r="AT60" s="73"/>
-      <c r="AU60" s="73"/>
-      <c r="AV60" s="73"/>
-      <c r="AW60" s="73"/>
-      <c r="AX60" s="73"/>
-      <c r="AY60" s="73"/>
-      <c r="AZ60" s="73"/>
-      <c r="BA60" s="73"/>
-      <c r="BB60" s="73"/>
-      <c r="BC60" s="73"/>
-      <c r="BD60" s="73"/>
-      <c r="BE60" s="73"/>
-      <c r="BF60" s="73"/>
-      <c r="BG60" s="73"/>
-      <c r="BH60" s="73"/>
-      <c r="BI60" s="73"/>
-      <c r="BJ60" s="73"/>
-      <c r="BK60" s="73"/>
-      <c r="BL60" s="73"/>
-      <c r="BM60" s="73"/>
-      <c r="BN60" s="73"/>
-      <c r="BO60" s="73"/>
-      <c r="BP60" s="73"/>
-      <c r="BQ60" s="73"/>
-      <c r="BR60" s="73"/>
-      <c r="BS60" s="73"/>
-      <c r="BT60" s="73"/>
-      <c r="BU60" s="73"/>
-      <c r="BV60" s="73"/>
-      <c r="BW60" s="73"/>
-      <c r="BX60" s="73"/>
-      <c r="BY60" s="73"/>
-      <c r="BZ60" s="73"/>
-      <c r="CA60" s="73"/>
-      <c r="CB60" s="73"/>
-      <c r="CC60" s="73"/>
-      <c r="CD60" s="73"/>
-    </row>
-    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I61" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="W61" s="72"/>
-      <c r="X61" s="72"/>
-      <c r="Y61" s="72"/>
-      <c r="Z61" s="72"/>
-      <c r="AA61" s="72"/>
-      <c r="AB61" s="72"/>
-      <c r="AC61" s="72"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG61" s="72"/>
-      <c r="AH61" s="72"/>
-      <c r="AI61" s="72"/>
-      <c r="AJ61" s="72"/>
-      <c r="AK61" s="72"/>
-      <c r="AL61" s="72"/>
-      <c r="AM61" s="72"/>
-      <c r="AN61" s="72"/>
-      <c r="AO61" s="72"/>
-      <c r="AP61" s="72"/>
-      <c r="AQ61" s="72"/>
-      <c r="AR61" s="72"/>
-      <c r="AS61" s="72"/>
-      <c r="AT61" s="72"/>
-      <c r="AU61" s="72"/>
-      <c r="AV61" s="72"/>
-      <c r="AW61" s="72"/>
-      <c r="AX61" s="72"/>
-      <c r="AY61" s="72"/>
-      <c r="AZ61" s="72"/>
-      <c r="BA61" s="72"/>
-      <c r="BB61" s="72"/>
-      <c r="BC61" s="72"/>
-      <c r="BD61" s="72"/>
-      <c r="BE61" s="72"/>
-      <c r="BF61" s="72"/>
-      <c r="BG61" s="72"/>
-      <c r="BH61" s="72"/>
-      <c r="BI61" s="72"/>
-      <c r="BJ61" s="72"/>
-      <c r="BK61" s="72"/>
-      <c r="BL61" s="72"/>
-      <c r="BM61" s="72"/>
-      <c r="BN61" s="72"/>
-      <c r="BO61" s="72"/>
-      <c r="BP61" s="72"/>
-      <c r="BQ61" s="72"/>
-      <c r="BR61" s="72"/>
-      <c r="BS61" s="72"/>
-      <c r="BT61" s="72"/>
-      <c r="BU61" s="72"/>
-      <c r="BV61" s="72"/>
-      <c r="BW61" s="72"/>
-      <c r="BX61" s="72"/>
-      <c r="BY61" s="72"/>
-      <c r="BZ61" s="72"/>
-      <c r="CA61" s="72"/>
-      <c r="CB61" s="72"/>
-      <c r="CC61" s="72"/>
-      <c r="CD61" s="72"/>
-    </row>
-    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I62" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
-      <c r="Z62" s="73"/>
-      <c r="AA62" s="73"/>
-      <c r="AB62" s="73"/>
-      <c r="AC62" s="73"/>
-      <c r="AD62" s="73"/>
-      <c r="AE62" s="73"/>
-      <c r="AF62" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG62" s="73"/>
-      <c r="AH62" s="73"/>
-      <c r="AI62" s="73"/>
-      <c r="AJ62" s="73"/>
-      <c r="AK62" s="73"/>
-      <c r="AL62" s="73"/>
-      <c r="AM62" s="73"/>
-      <c r="AN62" s="73"/>
-      <c r="AO62" s="73"/>
-      <c r="AP62" s="73"/>
-      <c r="AQ62" s="73"/>
-      <c r="AR62" s="73"/>
-      <c r="AS62" s="73"/>
-      <c r="AT62" s="73"/>
-      <c r="AU62" s="73"/>
-      <c r="AV62" s="73"/>
-      <c r="AW62" s="73"/>
-      <c r="AX62" s="73"/>
-      <c r="AY62" s="73"/>
-      <c r="AZ62" s="73"/>
-      <c r="BA62" s="73"/>
-      <c r="BB62" s="73"/>
-      <c r="BC62" s="73"/>
-      <c r="BD62" s="73"/>
-      <c r="BE62" s="73"/>
-      <c r="BF62" s="73"/>
-      <c r="BG62" s="73"/>
-      <c r="BH62" s="73"/>
-      <c r="BI62" s="73"/>
-      <c r="BJ62" s="73"/>
-      <c r="BK62" s="73"/>
-      <c r="BL62" s="73"/>
-      <c r="BM62" s="73"/>
-      <c r="BN62" s="73"/>
-      <c r="BO62" s="73"/>
-      <c r="BP62" s="73"/>
-      <c r="BQ62" s="73"/>
-      <c r="BR62" s="73"/>
-      <c r="BS62" s="73"/>
-      <c r="BT62" s="73"/>
-      <c r="BU62" s="73"/>
-      <c r="BV62" s="73"/>
-      <c r="BW62" s="73"/>
-      <c r="BX62" s="73"/>
-      <c r="BY62" s="73"/>
-      <c r="BZ62" s="73"/>
-      <c r="CA62" s="73"/>
-      <c r="CB62" s="73"/>
-      <c r="CC62" s="73"/>
-      <c r="CD62" s="73"/>
-    </row>
-    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I63" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
-      <c r="Z63" s="72"/>
-      <c r="AA63" s="72"/>
-      <c r="AB63" s="72"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="72"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG63" s="72"/>
-      <c r="AH63" s="72"/>
-      <c r="AI63" s="72"/>
-      <c r="AJ63" s="72"/>
-      <c r="AK63" s="72"/>
-      <c r="AL63" s="72"/>
-      <c r="AM63" s="72"/>
-      <c r="AN63" s="72"/>
-      <c r="AO63" s="72"/>
-      <c r="AP63" s="72"/>
-      <c r="AQ63" s="72"/>
-      <c r="AR63" s="72"/>
-      <c r="AS63" s="72"/>
-      <c r="AT63" s="72"/>
-      <c r="AU63" s="72"/>
-      <c r="AV63" s="72"/>
-      <c r="AW63" s="72"/>
-      <c r="AX63" s="72"/>
-      <c r="AY63" s="72"/>
-      <c r="AZ63" s="72"/>
-      <c r="BA63" s="72"/>
-      <c r="BB63" s="72"/>
-      <c r="BC63" s="72"/>
-      <c r="BD63" s="72"/>
-      <c r="BE63" s="72"/>
-      <c r="BF63" s="72"/>
-      <c r="BG63" s="72"/>
-      <c r="BH63" s="72"/>
-      <c r="BI63" s="72"/>
-      <c r="BJ63" s="72"/>
-      <c r="BK63" s="72"/>
-      <c r="BL63" s="72"/>
-      <c r="BM63" s="72"/>
-      <c r="BN63" s="72"/>
-      <c r="BO63" s="72"/>
-      <c r="BP63" s="72"/>
-      <c r="BQ63" s="72"/>
-      <c r="BR63" s="72"/>
-      <c r="BS63" s="72"/>
-      <c r="BT63" s="72"/>
-      <c r="BU63" s="72"/>
-      <c r="BV63" s="72"/>
-      <c r="BW63" s="72"/>
-      <c r="BX63" s="72"/>
-      <c r="BY63" s="72"/>
-      <c r="BZ63" s="72"/>
-      <c r="CA63" s="72"/>
-      <c r="CB63" s="72"/>
-      <c r="CC63" s="72"/>
-      <c r="CD63" s="72"/>
-    </row>
-    <row r="64" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I64" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="73"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="73"/>
-      <c r="W64" s="73"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="73"/>
-      <c r="Z64" s="73"/>
-      <c r="AA64" s="73"/>
-      <c r="AB64" s="73"/>
-      <c r="AC64" s="73"/>
-      <c r="AD64" s="73"/>
-      <c r="AE64" s="73"/>
-      <c r="AF64" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG64" s="73"/>
-      <c r="AH64" s="73"/>
-      <c r="AI64" s="73"/>
-      <c r="AJ64" s="73"/>
-      <c r="AK64" s="73"/>
-      <c r="AL64" s="73"/>
-      <c r="AM64" s="73"/>
-      <c r="AN64" s="73"/>
-      <c r="AO64" s="73"/>
-      <c r="AP64" s="73"/>
-      <c r="AQ64" s="73"/>
-      <c r="AR64" s="73"/>
-      <c r="AS64" s="73"/>
-      <c r="AT64" s="73"/>
-      <c r="AU64" s="73"/>
-      <c r="AV64" s="73"/>
-      <c r="AW64" s="73"/>
-      <c r="AX64" s="73"/>
-      <c r="AY64" s="73"/>
-      <c r="AZ64" s="73"/>
-      <c r="BA64" s="73"/>
-      <c r="BB64" s="73"/>
-      <c r="BC64" s="73"/>
-      <c r="BD64" s="73"/>
-      <c r="BE64" s="73"/>
-      <c r="BF64" s="73"/>
-      <c r="BG64" s="73"/>
-      <c r="BH64" s="73"/>
-      <c r="BI64" s="73"/>
-      <c r="BJ64" s="73"/>
-      <c r="BK64" s="73"/>
-      <c r="BL64" s="73"/>
-      <c r="BM64" s="73"/>
-      <c r="BN64" s="73"/>
-      <c r="BO64" s="73"/>
-      <c r="BP64" s="73"/>
-      <c r="BQ64" s="73"/>
-      <c r="BR64" s="73"/>
-      <c r="BS64" s="73"/>
-      <c r="BT64" s="73"/>
-      <c r="BU64" s="73"/>
-      <c r="BV64" s="73"/>
-      <c r="BW64" s="73"/>
-      <c r="BX64" s="73"/>
-      <c r="BY64" s="73"/>
-      <c r="BZ64" s="73"/>
-      <c r="CA64" s="73"/>
-      <c r="CB64" s="73"/>
-      <c r="CC64" s="73"/>
-      <c r="CD64" s="73"/>
-    </row>
-    <row r="65" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I65" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="75"/>
-      <c r="T65" s="75"/>
-      <c r="U65" s="76"/>
-      <c r="V65" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="W65" s="75"/>
-      <c r="X65" s="75"/>
-      <c r="Y65" s="75"/>
-      <c r="Z65" s="75"/>
-      <c r="AA65" s="75"/>
-      <c r="AB65" s="75"/>
-      <c r="AC65" s="75"/>
-      <c r="AD65" s="75"/>
-      <c r="AE65" s="76"/>
-      <c r="AF65" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG65" s="75"/>
-      <c r="AH65" s="75"/>
-      <c r="AI65" s="75"/>
-      <c r="AJ65" s="75"/>
-      <c r="AK65" s="75"/>
-      <c r="AL65" s="75"/>
-      <c r="AM65" s="75"/>
-      <c r="AN65" s="75"/>
-      <c r="AO65" s="75"/>
-      <c r="AP65" s="75"/>
-      <c r="AQ65" s="75"/>
-      <c r="AR65" s="75"/>
-      <c r="AS65" s="75"/>
-      <c r="AT65" s="75"/>
-      <c r="AU65" s="75"/>
-      <c r="AV65" s="75"/>
-      <c r="AW65" s="75"/>
-      <c r="AX65" s="75"/>
-      <c r="AY65" s="75"/>
-      <c r="AZ65" s="75"/>
-      <c r="BA65" s="75"/>
-      <c r="BB65" s="75"/>
-      <c r="BC65" s="75"/>
-      <c r="BD65" s="75"/>
-      <c r="BE65" s="75"/>
-      <c r="BF65" s="75"/>
-      <c r="BG65" s="75"/>
-      <c r="BH65" s="75"/>
-      <c r="BI65" s="75"/>
-      <c r="BJ65" s="75"/>
-      <c r="BK65" s="75"/>
-      <c r="BL65" s="75"/>
-      <c r="BM65" s="75"/>
-      <c r="BN65" s="75"/>
-      <c r="BO65" s="76"/>
-      <c r="BP65" s="72"/>
-      <c r="BQ65" s="72"/>
-      <c r="BR65" s="72"/>
-      <c r="BS65" s="72"/>
-      <c r="BT65" s="72"/>
-      <c r="BU65" s="72"/>
-      <c r="BV65" s="72"/>
-      <c r="BW65" s="72"/>
-      <c r="BX65" s="72"/>
-      <c r="BY65" s="72"/>
-      <c r="BZ65" s="72"/>
-      <c r="CA65" s="72"/>
-      <c r="CB65" s="72"/>
-      <c r="CC65" s="72"/>
-      <c r="CD65" s="72"/>
-    </row>
-    <row r="66" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I66" s="77"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="79"/>
-      <c r="V66" s="77"/>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="78"/>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="78"/>
-      <c r="AC66" s="78"/>
-      <c r="AD66" s="78"/>
-      <c r="AE66" s="79"/>
-      <c r="AF66" s="77"/>
-      <c r="AG66" s="78"/>
-      <c r="AH66" s="78"/>
-      <c r="AI66" s="78"/>
-      <c r="AJ66" s="78"/>
-      <c r="AK66" s="78"/>
-      <c r="AL66" s="78"/>
-      <c r="AM66" s="78"/>
-      <c r="AN66" s="78"/>
-      <c r="AO66" s="78"/>
-      <c r="AP66" s="78"/>
-      <c r="AQ66" s="78"/>
-      <c r="AR66" s="78"/>
-      <c r="AS66" s="78"/>
-      <c r="AT66" s="78"/>
-      <c r="AU66" s="78"/>
-      <c r="AV66" s="78"/>
-      <c r="AW66" s="78"/>
-      <c r="AX66" s="78"/>
-      <c r="AY66" s="78"/>
-      <c r="AZ66" s="78"/>
-      <c r="BA66" s="78"/>
-      <c r="BB66" s="78"/>
-      <c r="BC66" s="78"/>
-      <c r="BD66" s="78"/>
-      <c r="BE66" s="78"/>
-      <c r="BF66" s="78"/>
-      <c r="BG66" s="78"/>
-      <c r="BH66" s="78"/>
-      <c r="BI66" s="78"/>
-      <c r="BJ66" s="78"/>
-      <c r="BK66" s="78"/>
-      <c r="BL66" s="78"/>
-      <c r="BM66" s="78"/>
-      <c r="BN66" s="78"/>
-      <c r="BO66" s="79"/>
-      <c r="BP66" s="73"/>
-      <c r="BQ66" s="73"/>
-      <c r="BR66" s="73"/>
-      <c r="BS66" s="73"/>
-      <c r="BT66" s="73"/>
-      <c r="BU66" s="73"/>
-      <c r="BV66" s="73"/>
-      <c r="BW66" s="73"/>
-      <c r="BX66" s="73"/>
-      <c r="BY66" s="73"/>
-      <c r="BZ66" s="73"/>
-      <c r="CA66" s="73"/>
-      <c r="CB66" s="73"/>
-      <c r="CC66" s="73"/>
-      <c r="CD66" s="73"/>
-    </row>
-    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="72"/>
-      <c r="Z67" s="72"/>
-      <c r="AA67" s="72"/>
-      <c r="AB67" s="72"/>
-      <c r="AC67" s="72"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="72"/>
-      <c r="AG67" s="72"/>
-      <c r="AH67" s="72"/>
-      <c r="AI67" s="72"/>
-      <c r="AJ67" s="72"/>
-      <c r="AK67" s="72"/>
-      <c r="AL67" s="72"/>
-      <c r="AM67" s="72"/>
-      <c r="AN67" s="72"/>
-      <c r="AO67" s="72"/>
-      <c r="AP67" s="72"/>
-      <c r="AQ67" s="72"/>
-      <c r="AR67" s="72"/>
-      <c r="AS67" s="72"/>
-      <c r="AT67" s="72"/>
-      <c r="AU67" s="72"/>
-      <c r="AV67" s="72"/>
-      <c r="AW67" s="72"/>
-      <c r="AX67" s="72"/>
-      <c r="AY67" s="72"/>
-      <c r="AZ67" s="72"/>
-      <c r="BA67" s="72"/>
-      <c r="BB67" s="72"/>
-      <c r="BC67" s="72"/>
-      <c r="BD67" s="72"/>
-      <c r="BE67" s="72"/>
-      <c r="BF67" s="72"/>
-      <c r="BG67" s="72"/>
-      <c r="BH67" s="72"/>
-      <c r="BI67" s="72"/>
-      <c r="BJ67" s="72"/>
-      <c r="BK67" s="72"/>
-      <c r="BL67" s="72"/>
-      <c r="BM67" s="72"/>
-      <c r="BN67" s="72"/>
-      <c r="BO67" s="72"/>
-      <c r="BP67" s="72"/>
-      <c r="BQ67" s="72"/>
-      <c r="BR67" s="72"/>
-      <c r="BS67" s="72"/>
-      <c r="BT67" s="72"/>
-      <c r="BU67" s="72"/>
-      <c r="BV67" s="72"/>
-      <c r="BW67" s="72"/>
-      <c r="BX67" s="72"/>
-      <c r="BY67" s="72"/>
-      <c r="BZ67" s="72"/>
-      <c r="CA67" s="72"/>
-      <c r="CB67" s="72"/>
-      <c r="CC67" s="72"/>
-      <c r="CD67" s="72"/>
-    </row>
-    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="73"/>
-      <c r="R68" s="73"/>
-      <c r="S68" s="73"/>
-      <c r="T68" s="73"/>
-      <c r="U68" s="73"/>
-      <c r="V68" s="73"/>
-      <c r="W68" s="73"/>
-      <c r="X68" s="73"/>
-      <c r="Y68" s="73"/>
-      <c r="Z68" s="73"/>
-      <c r="AA68" s="73"/>
-      <c r="AB68" s="73"/>
-      <c r="AC68" s="73"/>
-      <c r="AD68" s="73"/>
-      <c r="AE68" s="73"/>
-      <c r="AF68" s="73"/>
-      <c r="AG68" s="73"/>
-      <c r="AH68" s="73"/>
-      <c r="AI68" s="73"/>
-      <c r="AJ68" s="73"/>
-      <c r="AK68" s="73"/>
-      <c r="AL68" s="73"/>
-      <c r="AM68" s="73"/>
-      <c r="AN68" s="73"/>
-      <c r="AO68" s="73"/>
-      <c r="AP68" s="73"/>
-      <c r="AQ68" s="73"/>
-      <c r="AR68" s="73"/>
-      <c r="AS68" s="73"/>
-      <c r="AT68" s="73"/>
-      <c r="AU68" s="73"/>
-      <c r="AV68" s="73"/>
-      <c r="AW68" s="73"/>
-      <c r="AX68" s="73"/>
-      <c r="AY68" s="73"/>
-      <c r="AZ68" s="73"/>
-      <c r="BA68" s="73"/>
-      <c r="BB68" s="73"/>
-      <c r="BC68" s="73"/>
-      <c r="BD68" s="73"/>
-      <c r="BE68" s="73"/>
-      <c r="BF68" s="73"/>
-      <c r="BG68" s="73"/>
-      <c r="BH68" s="73"/>
-      <c r="BI68" s="73"/>
-      <c r="BJ68" s="73"/>
-      <c r="BK68" s="73"/>
-      <c r="BL68" s="73"/>
-      <c r="BM68" s="73"/>
-      <c r="BN68" s="73"/>
-      <c r="BO68" s="73"/>
-      <c r="BP68" s="73"/>
-      <c r="BQ68" s="73"/>
-      <c r="BR68" s="73"/>
-      <c r="BS68" s="73"/>
-      <c r="BT68" s="73"/>
-      <c r="BU68" s="73"/>
-      <c r="BV68" s="73"/>
-      <c r="BW68" s="73"/>
-      <c r="BX68" s="73"/>
-      <c r="BY68" s="73"/>
-      <c r="BZ68" s="73"/>
-      <c r="CA68" s="73"/>
-      <c r="CB68" s="73"/>
-      <c r="CC68" s="73"/>
-      <c r="CD68" s="73"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="72"/>
+      <c r="Y72" s="72"/>
+      <c r="Z72" s="72"/>
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="72"/>
+      <c r="AC72" s="72"/>
+      <c r="AD72" s="72"/>
+      <c r="AE72" s="72"/>
+      <c r="AF72" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG72" s="72"/>
+      <c r="AH72" s="72"/>
+      <c r="AI72" s="72"/>
+      <c r="AJ72" s="72"/>
+      <c r="AK72" s="72"/>
+      <c r="AL72" s="72"/>
+      <c r="AM72" s="72"/>
+      <c r="AN72" s="72"/>
+      <c r="AO72" s="72"/>
+      <c r="AP72" s="72"/>
+      <c r="AQ72" s="72"/>
+      <c r="AR72" s="72"/>
+      <c r="AS72" s="72"/>
+      <c r="AT72" s="72"/>
+      <c r="AU72" s="72"/>
+      <c r="AV72" s="72"/>
+      <c r="AW72" s="72"/>
+      <c r="AX72" s="72"/>
+      <c r="AY72" s="72"/>
+      <c r="AZ72" s="72"/>
+      <c r="BA72" s="72"/>
+      <c r="BB72" s="72"/>
+      <c r="BC72" s="72"/>
+      <c r="BD72" s="72"/>
+      <c r="BE72" s="72"/>
+      <c r="BF72" s="72"/>
+      <c r="BG72" s="72"/>
+      <c r="BH72" s="72"/>
+      <c r="BI72" s="72"/>
+      <c r="BJ72" s="72"/>
+      <c r="BK72" s="72"/>
+      <c r="BL72" s="72"/>
+      <c r="BM72" s="72"/>
+      <c r="BN72" s="72"/>
+      <c r="BO72" s="72"/>
+      <c r="BP72" s="72"/>
+      <c r="BQ72" s="72"/>
+      <c r="BR72" s="72"/>
+      <c r="BS72" s="72"/>
+      <c r="BT72" s="72"/>
+      <c r="BU72" s="72"/>
+      <c r="BV72" s="72"/>
+      <c r="BW72" s="72"/>
+      <c r="BX72" s="72"/>
+      <c r="BY72" s="72"/>
+      <c r="BZ72" s="72"/>
+      <c r="CA72" s="72"/>
+      <c r="CB72" s="72"/>
+      <c r="CC72" s="72"/>
+      <c r="CD72" s="72"/>
+    </row>
+    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="73"/>
+      <c r="AD73" s="73"/>
+      <c r="AE73" s="73"/>
+      <c r="AF73" s="73"/>
+      <c r="AG73" s="73"/>
+      <c r="AH73" s="73"/>
+      <c r="AI73" s="73"/>
+      <c r="AJ73" s="73"/>
+      <c r="AK73" s="73"/>
+      <c r="AL73" s="73"/>
+      <c r="AM73" s="73"/>
+      <c r="AN73" s="73"/>
+      <c r="AO73" s="73"/>
+      <c r="AP73" s="73"/>
+      <c r="AQ73" s="73"/>
+      <c r="AR73" s="73"/>
+      <c r="AS73" s="73"/>
+      <c r="AT73" s="73"/>
+      <c r="AU73" s="73"/>
+      <c r="AV73" s="73"/>
+      <c r="AW73" s="73"/>
+      <c r="AX73" s="73"/>
+      <c r="AY73" s="73"/>
+      <c r="AZ73" s="73"/>
+      <c r="BA73" s="73"/>
+      <c r="BB73" s="73"/>
+      <c r="BC73" s="73"/>
+      <c r="BD73" s="73"/>
+      <c r="BE73" s="73"/>
+      <c r="BF73" s="73"/>
+      <c r="BG73" s="73"/>
+      <c r="BH73" s="73"/>
+      <c r="BI73" s="73"/>
+      <c r="BJ73" s="73"/>
+      <c r="BK73" s="73"/>
+      <c r="BL73" s="73"/>
+      <c r="BM73" s="73"/>
+      <c r="BN73" s="73"/>
+      <c r="BO73" s="73"/>
+      <c r="BP73" s="73"/>
+      <c r="BQ73" s="73"/>
+      <c r="BR73" s="73"/>
+      <c r="BS73" s="73"/>
+      <c r="BT73" s="73"/>
+      <c r="BU73" s="73"/>
+      <c r="BV73" s="73"/>
+      <c r="BW73" s="73"/>
+      <c r="BX73" s="73"/>
+      <c r="BY73" s="73"/>
+      <c r="BZ73" s="73"/>
+      <c r="CA73" s="73"/>
+      <c r="CB73" s="73"/>
+      <c r="CC73" s="73"/>
+      <c r="CD73" s="73"/>
+    </row>
+    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+      <c r="Z74" s="72"/>
+      <c r="AA74" s="72"/>
+      <c r="AB74" s="72"/>
+      <c r="AC74" s="72"/>
+      <c r="AD74" s="72"/>
+      <c r="AE74" s="72"/>
+      <c r="AF74" s="72"/>
+      <c r="AG74" s="72"/>
+      <c r="AH74" s="72"/>
+      <c r="AI74" s="72"/>
+      <c r="AJ74" s="72"/>
+      <c r="AK74" s="72"/>
+      <c r="AL74" s="72"/>
+      <c r="AM74" s="72"/>
+      <c r="AN74" s="72"/>
+      <c r="AO74" s="72"/>
+      <c r="AP74" s="72"/>
+      <c r="AQ74" s="72"/>
+      <c r="AR74" s="72"/>
+      <c r="AS74" s="72"/>
+      <c r="AT74" s="72"/>
+      <c r="AU74" s="72"/>
+      <c r="AV74" s="72"/>
+      <c r="AW74" s="72"/>
+      <c r="AX74" s="72"/>
+      <c r="AY74" s="72"/>
+      <c r="AZ74" s="72"/>
+      <c r="BA74" s="72"/>
+      <c r="BB74" s="72"/>
+      <c r="BC74" s="72"/>
+      <c r="BD74" s="72"/>
+      <c r="BE74" s="72"/>
+      <c r="BF74" s="72"/>
+      <c r="BG74" s="72"/>
+      <c r="BH74" s="72"/>
+      <c r="BI74" s="72"/>
+      <c r="BJ74" s="72"/>
+      <c r="BK74" s="72"/>
+      <c r="BL74" s="72"/>
+      <c r="BM74" s="72"/>
+      <c r="BN74" s="72"/>
+      <c r="BO74" s="72"/>
+      <c r="BP74" s="72"/>
+      <c r="BQ74" s="72"/>
+      <c r="BR74" s="72"/>
+      <c r="BS74" s="72"/>
+      <c r="BT74" s="72"/>
+      <c r="BU74" s="72"/>
+      <c r="BV74" s="72"/>
+      <c r="BW74" s="72"/>
+      <c r="BX74" s="72"/>
+      <c r="BY74" s="72"/>
+      <c r="BZ74" s="72"/>
+      <c r="CA74" s="72"/>
+      <c r="CB74" s="72"/>
+      <c r="CC74" s="72"/>
+      <c r="CD74" s="72"/>
+    </row>
+    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+      <c r="Y75" s="73"/>
+      <c r="Z75" s="73"/>
+      <c r="AA75" s="73"/>
+      <c r="AB75" s="73"/>
+      <c r="AC75" s="73"/>
+      <c r="AD75" s="73"/>
+      <c r="AE75" s="73"/>
+      <c r="AF75" s="73"/>
+      <c r="AG75" s="73"/>
+      <c r="AH75" s="73"/>
+      <c r="AI75" s="73"/>
+      <c r="AJ75" s="73"/>
+      <c r="AK75" s="73"/>
+      <c r="AL75" s="73"/>
+      <c r="AM75" s="73"/>
+      <c r="AN75" s="73"/>
+      <c r="AO75" s="73"/>
+      <c r="AP75" s="73"/>
+      <c r="AQ75" s="73"/>
+      <c r="AR75" s="73"/>
+      <c r="AS75" s="73"/>
+      <c r="AT75" s="73"/>
+      <c r="AU75" s="73"/>
+      <c r="AV75" s="73"/>
+      <c r="AW75" s="73"/>
+      <c r="AX75" s="73"/>
+      <c r="AY75" s="73"/>
+      <c r="AZ75" s="73"/>
+      <c r="BA75" s="73"/>
+      <c r="BB75" s="73"/>
+      <c r="BC75" s="73"/>
+      <c r="BD75" s="73"/>
+      <c r="BE75" s="73"/>
+      <c r="BF75" s="73"/>
+      <c r="BG75" s="73"/>
+      <c r="BH75" s="73"/>
+      <c r="BI75" s="73"/>
+      <c r="BJ75" s="73"/>
+      <c r="BK75" s="73"/>
+      <c r="BL75" s="73"/>
+      <c r="BM75" s="73"/>
+      <c r="BN75" s="73"/>
+      <c r="BO75" s="73"/>
+      <c r="BP75" s="73"/>
+      <c r="BQ75" s="73"/>
+      <c r="BR75" s="73"/>
+      <c r="BS75" s="73"/>
+      <c r="BT75" s="73"/>
+      <c r="BU75" s="73"/>
+      <c r="BV75" s="73"/>
+      <c r="BW75" s="73"/>
+      <c r="BX75" s="73"/>
+      <c r="BY75" s="73"/>
+      <c r="BZ75" s="73"/>
+      <c r="CA75" s="73"/>
+      <c r="CB75" s="73"/>
+      <c r="CC75" s="73"/>
+      <c r="CD75" s="73"/>
+    </row>
+    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="72"/>
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="72"/>
+      <c r="AA76" s="72"/>
+      <c r="AB76" s="72"/>
+      <c r="AC76" s="72"/>
+      <c r="AD76" s="72"/>
+      <c r="AE76" s="72"/>
+      <c r="AF76" s="72"/>
+      <c r="AG76" s="72"/>
+      <c r="AH76" s="72"/>
+      <c r="AI76" s="72"/>
+      <c r="AJ76" s="72"/>
+      <c r="AK76" s="72"/>
+      <c r="AL76" s="72"/>
+      <c r="AM76" s="72"/>
+      <c r="AN76" s="72"/>
+      <c r="AO76" s="72"/>
+      <c r="AP76" s="72"/>
+      <c r="AQ76" s="72"/>
+      <c r="AR76" s="72"/>
+      <c r="AS76" s="72"/>
+      <c r="AT76" s="72"/>
+      <c r="AU76" s="72"/>
+      <c r="AV76" s="72"/>
+      <c r="AW76" s="72"/>
+      <c r="AX76" s="72"/>
+      <c r="AY76" s="72"/>
+      <c r="AZ76" s="72"/>
+      <c r="BA76" s="72"/>
+      <c r="BB76" s="72"/>
+      <c r="BC76" s="72"/>
+      <c r="BD76" s="72"/>
+      <c r="BE76" s="72"/>
+      <c r="BF76" s="72"/>
+      <c r="BG76" s="72"/>
+      <c r="BH76" s="72"/>
+      <c r="BI76" s="72"/>
+      <c r="BJ76" s="72"/>
+      <c r="BK76" s="72"/>
+      <c r="BL76" s="72"/>
+      <c r="BM76" s="72"/>
+      <c r="BN76" s="72"/>
+      <c r="BO76" s="72"/>
+      <c r="BP76" s="72"/>
+      <c r="BQ76" s="72"/>
+      <c r="BR76" s="72"/>
+      <c r="BS76" s="72"/>
+      <c r="BT76" s="72"/>
+      <c r="BU76" s="72"/>
+      <c r="BV76" s="72"/>
+      <c r="BW76" s="72"/>
+      <c r="BX76" s="72"/>
+      <c r="BY76" s="72"/>
+      <c r="BZ76" s="72"/>
+      <c r="CA76" s="72"/>
+      <c r="CB76" s="72"/>
+      <c r="CC76" s="72"/>
+      <c r="CD76" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="141">
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="A4:XFD5"/>
@@ -10715,22 +11900,28 @@
     <mergeCell ref="A30:G31"/>
     <mergeCell ref="I27:U27"/>
     <mergeCell ref="V27:AE27"/>
+    <mergeCell ref="I29:U29"/>
+    <mergeCell ref="V29:AE29"/>
+    <mergeCell ref="A54:G55"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
+    <mergeCell ref="A46:G47"/>
+    <mergeCell ref="A48:G49"/>
+    <mergeCell ref="A50:G51"/>
+    <mergeCell ref="A52:G53"/>
+    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="I35:U35"/>
+    <mergeCell ref="V35:AE35"/>
+    <mergeCell ref="AF35:BO35"/>
+    <mergeCell ref="BP35:CD35"/>
     <mergeCell ref="AF27:BO27"/>
     <mergeCell ref="BP27:CD27"/>
     <mergeCell ref="I28:U28"/>
     <mergeCell ref="V28:AE28"/>
     <mergeCell ref="AF28:BO28"/>
     <mergeCell ref="BP28:CD28"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="A32:G33"/>
-    <mergeCell ref="A34:G35"/>
     <mergeCell ref="I31:U31"/>
     <mergeCell ref="V31:AE31"/>
     <mergeCell ref="AF31:BO31"/>
@@ -10739,22 +11930,6 @@
     <mergeCell ref="V32:AE32"/>
     <mergeCell ref="AF32:BO32"/>
     <mergeCell ref="BP32:CD32"/>
-    <mergeCell ref="I29:U29"/>
-    <mergeCell ref="V29:AE29"/>
-    <mergeCell ref="AF29:BO29"/>
-    <mergeCell ref="BP29:CD29"/>
-    <mergeCell ref="I30:U30"/>
-    <mergeCell ref="V30:AE30"/>
-    <mergeCell ref="AF30:BO30"/>
-    <mergeCell ref="BP30:CD30"/>
-    <mergeCell ref="I35:U35"/>
-    <mergeCell ref="V35:AE35"/>
-    <mergeCell ref="AF35:BO35"/>
-    <mergeCell ref="BP35:CD35"/>
-    <mergeCell ref="I36:U36"/>
-    <mergeCell ref="V36:AE36"/>
-    <mergeCell ref="AF36:BO36"/>
-    <mergeCell ref="BP36:CD36"/>
     <mergeCell ref="I33:U33"/>
     <mergeCell ref="V33:AE33"/>
     <mergeCell ref="AF33:BO33"/>
@@ -10763,19 +11938,29 @@
     <mergeCell ref="V34:AE34"/>
     <mergeCell ref="AF34:BO34"/>
     <mergeCell ref="BP34:CD34"/>
-    <mergeCell ref="I59:U59"/>
-    <mergeCell ref="V59:AE59"/>
-    <mergeCell ref="AF59:BO59"/>
-    <mergeCell ref="BP59:CD59"/>
-    <mergeCell ref="I60:U60"/>
-    <mergeCell ref="V60:AE60"/>
-    <mergeCell ref="AF60:BO60"/>
-    <mergeCell ref="BP60:CD60"/>
-    <mergeCell ref="I40:CD42"/>
-    <mergeCell ref="I58:U58"/>
-    <mergeCell ref="V58:AE58"/>
-    <mergeCell ref="AF58:BO58"/>
-    <mergeCell ref="BP58:CD58"/>
+    <mergeCell ref="AF29:BO29"/>
+    <mergeCell ref="BP29:CD29"/>
+    <mergeCell ref="I30:U30"/>
+    <mergeCell ref="V30:AE30"/>
+    <mergeCell ref="AF30:BO30"/>
+    <mergeCell ref="BP30:CD30"/>
+    <mergeCell ref="I44:CD46"/>
+    <mergeCell ref="I62:U62"/>
+    <mergeCell ref="V62:AE62"/>
+    <mergeCell ref="AF62:BO62"/>
+    <mergeCell ref="BP62:CD62"/>
+    <mergeCell ref="I36:U36"/>
+    <mergeCell ref="V36:AE36"/>
+    <mergeCell ref="AF36:BO36"/>
+    <mergeCell ref="BP36:CD36"/>
+    <mergeCell ref="I65:U65"/>
+    <mergeCell ref="V65:AE65"/>
+    <mergeCell ref="AF65:BO65"/>
+    <mergeCell ref="BP65:CD65"/>
+    <mergeCell ref="I66:U66"/>
+    <mergeCell ref="V66:AE66"/>
+    <mergeCell ref="AF66:BO66"/>
+    <mergeCell ref="BP66:CD66"/>
     <mergeCell ref="I63:U63"/>
     <mergeCell ref="V63:AE63"/>
     <mergeCell ref="AF63:BO63"/>
@@ -10784,14 +11969,7 @@
     <mergeCell ref="V64:AE64"/>
     <mergeCell ref="AF64:BO64"/>
     <mergeCell ref="BP64:CD64"/>
-    <mergeCell ref="I61:U61"/>
-    <mergeCell ref="V61:AE61"/>
-    <mergeCell ref="AF61:BO61"/>
-    <mergeCell ref="BP61:CD61"/>
-    <mergeCell ref="I62:U62"/>
-    <mergeCell ref="V62:AE62"/>
-    <mergeCell ref="AF62:BO62"/>
-    <mergeCell ref="BP62:CD62"/>
+    <mergeCell ref="BP70:CD70"/>
     <mergeCell ref="I67:U67"/>
     <mergeCell ref="V67:AE67"/>
     <mergeCell ref="AF67:BO67"/>
@@ -10800,14 +11978,51 @@
     <mergeCell ref="V68:AE68"/>
     <mergeCell ref="AF68:BO68"/>
     <mergeCell ref="BP68:CD68"/>
-    <mergeCell ref="I65:U65"/>
-    <mergeCell ref="V65:AE65"/>
-    <mergeCell ref="AF65:BO65"/>
-    <mergeCell ref="BP65:CD65"/>
-    <mergeCell ref="I66:U66"/>
-    <mergeCell ref="V66:AE66"/>
-    <mergeCell ref="AF66:BO66"/>
-    <mergeCell ref="BP66:CD66"/>
+    <mergeCell ref="I37:U37"/>
+    <mergeCell ref="V37:AE37"/>
+    <mergeCell ref="AF37:BO37"/>
+    <mergeCell ref="BP37:CD37"/>
+    <mergeCell ref="I38:U38"/>
+    <mergeCell ref="V38:AE38"/>
+    <mergeCell ref="AF38:BO38"/>
+    <mergeCell ref="BP38:CD38"/>
+    <mergeCell ref="A38:G39"/>
+    <mergeCell ref="A40:G41"/>
+    <mergeCell ref="I39:U39"/>
+    <mergeCell ref="V39:AE39"/>
+    <mergeCell ref="AF39:BO39"/>
+    <mergeCell ref="BP39:CD39"/>
+    <mergeCell ref="I73:U73"/>
+    <mergeCell ref="V73:AE73"/>
+    <mergeCell ref="AF73:BO73"/>
+    <mergeCell ref="BP73:CD73"/>
+    <mergeCell ref="I71:U71"/>
+    <mergeCell ref="V71:AE71"/>
+    <mergeCell ref="AF71:BO71"/>
+    <mergeCell ref="BP71:CD71"/>
+    <mergeCell ref="I72:U72"/>
+    <mergeCell ref="V72:AE72"/>
+    <mergeCell ref="AF72:BO72"/>
+    <mergeCell ref="BP72:CD72"/>
+    <mergeCell ref="I69:U69"/>
+    <mergeCell ref="V69:AE69"/>
+    <mergeCell ref="AF69:BO69"/>
+    <mergeCell ref="BP69:CD69"/>
+    <mergeCell ref="I70:U70"/>
+    <mergeCell ref="V70:AE70"/>
+    <mergeCell ref="AF70:BO70"/>
+    <mergeCell ref="I74:U74"/>
+    <mergeCell ref="V74:AE74"/>
+    <mergeCell ref="AF74:BO74"/>
+    <mergeCell ref="BP74:CD74"/>
+    <mergeCell ref="I75:U75"/>
+    <mergeCell ref="V75:AE75"/>
+    <mergeCell ref="AF75:BO75"/>
+    <mergeCell ref="BP75:CD75"/>
+    <mergeCell ref="I76:U76"/>
+    <mergeCell ref="V76:AE76"/>
+    <mergeCell ref="AF76:BO76"/>
+    <mergeCell ref="BP76:CD76"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10824,33 +12039,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCAA047-5D23-4546-A9DC-CF28AC8EC082}">
-  <dimension ref="A1:CD144"/>
+  <dimension ref="A1:CD164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
+    <col min="1" max="16384" width="2.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:82" s="19" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:82" s="21" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:82" s="23" customFormat="1" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -10861,7 +12076,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -10870,7 +12085,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="29"/>
       <c r="I7" s="63" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -10946,7 +12161,7 @@
       <c r="CC7" s="64"/>
       <c r="CD7" s="65"/>
     </row>
-    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
@@ -11031,7 +12246,7 @@
       <c r="CC8" s="81"/>
       <c r="CD8" s="68"/>
     </row>
-    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -11114,7 +12329,7 @@
       <c r="CC9" s="70"/>
       <c r="CD9" s="71"/>
     </row>
-    <row r="10" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
@@ -11125,7 +12340,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -11208,7 +12423,7 @@
       <c r="CC11" s="111"/>
       <c r="CD11" s="111"/>
     </row>
-    <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -11293,7 +12508,7 @@
       <c r="CC12" s="111"/>
       <c r="CD12" s="111"/>
     </row>
-    <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -11376,7 +12591,7 @@
       <c r="CC13" s="111"/>
       <c r="CD13" s="111"/>
     </row>
-    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -11459,7 +12674,7 @@
       <c r="CC14" s="111"/>
       <c r="CD14" s="111"/>
     </row>
-    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -11542,7 +12757,7 @@
       <c r="CC15" s="111"/>
       <c r="CD15" s="111"/>
     </row>
-    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -11625,7 +12840,7 @@
       <c r="CC16" s="111"/>
       <c r="CD16" s="111"/>
     </row>
-    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -11708,7 +12923,7 @@
       <c r="CC17" s="111"/>
       <c r="CD17" s="111"/>
     </row>
-    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -11791,7 +13006,7 @@
       <c r="CC18" s="111"/>
       <c r="CD18" s="111"/>
     </row>
-    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -11874,7 +13089,7 @@
       <c r="CC19" s="111"/>
       <c r="CD19" s="111"/>
     </row>
-    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -11957,7 +13172,7 @@
       <c r="CC20" s="111"/>
       <c r="CD20" s="111"/>
     </row>
-    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12040,7 +13255,7 @@
       <c r="CC21" s="111"/>
       <c r="CD21" s="111"/>
     </row>
-    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -12123,7 +13338,7 @@
       <c r="CC22" s="111"/>
       <c r="CD22" s="111"/>
     </row>
-    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -12206,7 +13421,7 @@
       <c r="CC23" s="111"/>
       <c r="CD23" s="111"/>
     </row>
-    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -12289,7 +13504,7 @@
       <c r="CC24" s="111"/>
       <c r="CD24" s="111"/>
     </row>
-    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -12298,7 +13513,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12307,7 +13522,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -12316,7 +13531,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -12325,7 +13540,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="I28" s="63" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
@@ -12401,7 +13616,7 @@
       <c r="CC28" s="64"/>
       <c r="CD28" s="65"/>
     </row>
-    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -12484,7 +13699,7 @@
       <c r="CC29" s="81"/>
       <c r="CD29" s="68"/>
     </row>
-    <row r="30" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -12567,7 +13782,7 @@
       <c r="CC30" s="70"/>
       <c r="CD30" s="71"/>
     </row>
-    <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -12576,7 +13791,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12585,7 +13800,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="I32" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J32" s="88"/>
       <c r="K32" s="88"/>
@@ -12661,7 +13876,7 @@
       <c r="CC32" s="91"/>
       <c r="CD32" s="92"/>
     </row>
-    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12670,7 +13885,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="I33" s="108" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="J33" s="109"/>
       <c r="K33" s="109"/>
@@ -12746,7 +13961,7 @@
       <c r="CC33" s="94"/>
       <c r="CD33" s="95"/>
     </row>
-    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -12755,7 +13970,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="I34" s="102" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
@@ -12831,7 +14046,7 @@
       <c r="CC34" s="94"/>
       <c r="CD34" s="95"/>
     </row>
-    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12840,7 +14055,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="I35" s="99" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="J35" s="100"/>
       <c r="K35" s="100"/>
@@ -12916,7 +14131,7 @@
       <c r="CC35" s="94"/>
       <c r="CD35" s="95"/>
     </row>
-    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -12925,7 +14140,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="I36" s="102" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
@@ -13001,7 +14216,7 @@
       <c r="CC36" s="94"/>
       <c r="CD36" s="95"/>
     </row>
-    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -13010,7 +14225,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="I37" s="99" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J37" s="100"/>
       <c r="K37" s="100"/>
@@ -13086,7 +14301,7 @@
       <c r="CC37" s="94"/>
       <c r="CD37" s="95"/>
     </row>
-    <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13095,7 +14310,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="I38" s="102" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
@@ -13171,7 +14386,7 @@
       <c r="CC38" s="94"/>
       <c r="CD38" s="95"/>
     </row>
-    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -13179,7 +14394,9 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
-      <c r="I39" s="99"/>
+      <c r="I39" s="99" t="s">
+        <v>134</v>
+      </c>
       <c r="J39" s="100"/>
       <c r="K39" s="100"/>
       <c r="L39" s="100"/>
@@ -13254,7 +14471,7 @@
       <c r="CC39" s="94"/>
       <c r="CD39" s="95"/>
     </row>
-    <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -13337,7 +14554,7 @@
       <c r="CC40" s="94"/>
       <c r="CD40" s="95"/>
     </row>
-    <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -13420,7 +14637,7 @@
       <c r="CC41" s="94"/>
       <c r="CD41" s="95"/>
     </row>
-    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -13503,7 +14720,7 @@
       <c r="CC42" s="94"/>
       <c r="CD42" s="95"/>
     </row>
-    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -13586,7 +14803,7 @@
       <c r="CC43" s="94"/>
       <c r="CD43" s="95"/>
     </row>
-    <row r="44" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -13669,7 +14886,7 @@
       <c r="CC44" s="97"/>
       <c r="CD44" s="98"/>
     </row>
-    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -13678,7 +14895,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -13687,7 +14904,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -13696,7 +14913,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -13705,7 +14922,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="I48" s="63" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="J48" s="64"/>
       <c r="K48" s="64"/>
@@ -13781,7 +14998,7 @@
       <c r="CC48" s="64"/>
       <c r="CD48" s="65"/>
     </row>
-    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -13864,7 +15081,7 @@
       <c r="CC49" s="81"/>
       <c r="CD49" s="68"/>
     </row>
-    <row r="50" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -13947,7 +15164,7 @@
       <c r="CC50" s="70"/>
       <c r="CD50" s="71"/>
     </row>
-    <row r="51" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -13956,9 +15173,9 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I52" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J52" s="88"/>
       <c r="K52" s="88"/>
@@ -14034,9 +15251,9 @@
       <c r="CC52" s="91"/>
       <c r="CD52" s="92"/>
     </row>
-    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I53" s="108" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="J53" s="109"/>
       <c r="K53" s="109"/>
@@ -14112,9 +15329,9 @@
       <c r="CC53" s="94"/>
       <c r="CD53" s="95"/>
     </row>
-    <row r="54" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I54" s="102" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="J54" s="103"/>
       <c r="K54" s="103"/>
@@ -14190,9 +15407,9 @@
       <c r="CC54" s="94"/>
       <c r="CD54" s="95"/>
     </row>
-    <row r="55" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I55" s="99" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="J55" s="100"/>
       <c r="K55" s="100"/>
@@ -14268,9 +15485,9 @@
       <c r="CC55" s="94"/>
       <c r="CD55" s="95"/>
     </row>
-    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I56" s="102" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="J56" s="103"/>
       <c r="K56" s="103"/>
@@ -14346,9 +15563,9 @@
       <c r="CC56" s="94"/>
       <c r="CD56" s="95"/>
     </row>
-    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="99" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="J57" s="100"/>
       <c r="K57" s="100"/>
@@ -14424,9 +15641,9 @@
       <c r="CC57" s="94"/>
       <c r="CD57" s="95"/>
     </row>
-    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="102" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="J58" s="103"/>
       <c r="K58" s="103"/>
@@ -14502,8 +15719,10 @@
       <c r="CC58" s="94"/>
       <c r="CD58" s="95"/>
     </row>
-    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I59" s="99"/>
+    <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" s="99" t="s">
+        <v>142</v>
+      </c>
       <c r="J59" s="100"/>
       <c r="K59" s="100"/>
       <c r="L59" s="100"/>
@@ -14578,8 +15797,10 @@
       <c r="CC59" s="94"/>
       <c r="CD59" s="95"/>
     </row>
-    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I60" s="102"/>
+    <row r="60" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="102" t="s">
+        <v>132</v>
+      </c>
       <c r="J60" s="103"/>
       <c r="K60" s="103"/>
       <c r="L60" s="103"/>
@@ -14654,8 +15875,10 @@
       <c r="CC60" s="94"/>
       <c r="CD60" s="95"/>
     </row>
-    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I61" s="99"/>
+    <row r="61" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="99" t="s">
+        <v>133</v>
+      </c>
       <c r="J61" s="100"/>
       <c r="K61" s="100"/>
       <c r="L61" s="100"/>
@@ -14730,8 +15953,10 @@
       <c r="CC61" s="94"/>
       <c r="CD61" s="95"/>
     </row>
-    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I62" s="102"/>
+    <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="102" t="s">
+        <v>149</v>
+      </c>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
       <c r="L62" s="103"/>
@@ -14806,7 +16031,7 @@
       <c r="CC62" s="94"/>
       <c r="CD62" s="95"/>
     </row>
-    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="99"/>
       <c r="J63" s="100"/>
       <c r="K63" s="100"/>
@@ -14882,7 +16107,7 @@
       <c r="CC63" s="94"/>
       <c r="CD63" s="95"/>
     </row>
-    <row r="64" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I64" s="105"/>
       <c r="J64" s="106"/>
       <c r="K64" s="106"/>
@@ -14958,10 +16183,10 @@
       <c r="CC64" s="97"/>
       <c r="CD64" s="98"/>
     </row>
-    <row r="67" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="68" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="63" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J68" s="64"/>
       <c r="K68" s="64"/>
@@ -15037,7 +16262,7 @@
       <c r="CC68" s="64"/>
       <c r="CD68" s="65"/>
     </row>
-    <row r="69" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I69" s="66"/>
       <c r="J69" s="81"/>
       <c r="K69" s="81"/>
@@ -15113,7 +16338,7 @@
       <c r="CC69" s="81"/>
       <c r="CD69" s="68"/>
     </row>
-    <row r="70" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I70" s="69"/>
       <c r="J70" s="70"/>
       <c r="K70" s="70"/>
@@ -15189,10 +16414,10 @@
       <c r="CC70" s="70"/>
       <c r="CD70" s="71"/>
     </row>
-    <row r="71" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="72" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="72" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I72" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J72" s="88"/>
       <c r="K72" s="88"/>
@@ -15268,9 +16493,9 @@
       <c r="CC72" s="91"/>
       <c r="CD72" s="92"/>
     </row>
-    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="108" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="J73" s="109"/>
       <c r="K73" s="109"/>
@@ -15346,9 +16571,9 @@
       <c r="CC73" s="94"/>
       <c r="CD73" s="95"/>
     </row>
-    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I74" s="102" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="J74" s="103"/>
       <c r="K74" s="103"/>
@@ -15424,9 +16649,9 @@
       <c r="CC74" s="94"/>
       <c r="CD74" s="95"/>
     </row>
-    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="99" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="J75" s="100"/>
       <c r="K75" s="100"/>
@@ -15502,9 +16727,9 @@
       <c r="CC75" s="94"/>
       <c r="CD75" s="95"/>
     </row>
-    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="102" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="J76" s="103"/>
       <c r="K76" s="103"/>
@@ -15580,9 +16805,9 @@
       <c r="CC76" s="94"/>
       <c r="CD76" s="95"/>
     </row>
-    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" s="99" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="J77" s="100"/>
       <c r="K77" s="100"/>
@@ -15658,9 +16883,9 @@
       <c r="CC77" s="94"/>
       <c r="CD77" s="95"/>
     </row>
-    <row r="78" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" s="102" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="J78" s="103"/>
       <c r="K78" s="103"/>
@@ -15736,8 +16961,10 @@
       <c r="CC78" s="94"/>
       <c r="CD78" s="95"/>
     </row>
-    <row r="79" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I79" s="99"/>
+    <row r="79" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I79" s="99" t="s">
+        <v>132</v>
+      </c>
       <c r="J79" s="100"/>
       <c r="K79" s="100"/>
       <c r="L79" s="100"/>
@@ -15812,8 +17039,10 @@
       <c r="CC79" s="94"/>
       <c r="CD79" s="95"/>
     </row>
-    <row r="80" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I80" s="102"/>
+    <row r="80" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I80" s="102" t="s">
+        <v>133</v>
+      </c>
       <c r="J80" s="103"/>
       <c r="K80" s="103"/>
       <c r="L80" s="103"/>
@@ -15888,7 +17117,7 @@
       <c r="CC80" s="94"/>
       <c r="CD80" s="95"/>
     </row>
-    <row r="81" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" s="99"/>
       <c r="J81" s="100"/>
       <c r="K81" s="100"/>
@@ -15964,7 +17193,7 @@
       <c r="CC81" s="94"/>
       <c r="CD81" s="95"/>
     </row>
-    <row r="82" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I82" s="102"/>
       <c r="J82" s="103"/>
       <c r="K82" s="103"/>
@@ -16040,7 +17269,7 @@
       <c r="CC82" s="94"/>
       <c r="CD82" s="95"/>
     </row>
-    <row r="83" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I83" s="99"/>
       <c r="J83" s="100"/>
       <c r="K83" s="100"/>
@@ -16116,7 +17345,7 @@
       <c r="CC83" s="94"/>
       <c r="CD83" s="95"/>
     </row>
-    <row r="84" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I84" s="105"/>
       <c r="J84" s="106"/>
       <c r="K84" s="106"/>
@@ -16192,10 +17421,10 @@
       <c r="CC84" s="97"/>
       <c r="CD84" s="98"/>
     </row>
-    <row r="87" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="88" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="63" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J88" s="64"/>
       <c r="K88" s="64"/>
@@ -16271,7 +17500,7 @@
       <c r="CC88" s="64"/>
       <c r="CD88" s="65"/>
     </row>
-    <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I89" s="66"/>
       <c r="J89" s="81"/>
       <c r="K89" s="81"/>
@@ -16347,7 +17576,7 @@
       <c r="CC89" s="81"/>
       <c r="CD89" s="68"/>
     </row>
-    <row r="90" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I90" s="69"/>
       <c r="J90" s="70"/>
       <c r="K90" s="70"/>
@@ -16423,10 +17652,10 @@
       <c r="CC90" s="70"/>
       <c r="CD90" s="71"/>
     </row>
-    <row r="91" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="92" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="92" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I92" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J92" s="88"/>
       <c r="K92" s="88"/>
@@ -16502,9 +17731,9 @@
       <c r="CC92" s="91"/>
       <c r="CD92" s="92"/>
     </row>
-    <row r="93" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I93" s="99" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="J93" s="100"/>
       <c r="K93" s="100"/>
@@ -16580,9 +17809,9 @@
       <c r="CC93" s="94"/>
       <c r="CD93" s="95"/>
     </row>
-    <row r="94" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I94" s="102" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="J94" s="103"/>
       <c r="K94" s="103"/>
@@ -16658,9 +17887,9 @@
       <c r="CC94" s="94"/>
       <c r="CD94" s="95"/>
     </row>
-    <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I95" s="99" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="J95" s="100"/>
       <c r="K95" s="100"/>
@@ -16736,9 +17965,9 @@
       <c r="CC95" s="94"/>
       <c r="CD95" s="95"/>
     </row>
-    <row r="96" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I96" s="102" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="J96" s="103"/>
       <c r="K96" s="103"/>
@@ -16814,9 +18043,9 @@
       <c r="CC96" s="94"/>
       <c r="CD96" s="95"/>
     </row>
-    <row r="97" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I97" s="99" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="J97" s="100"/>
       <c r="K97" s="100"/>
@@ -16892,7 +18121,7 @@
       <c r="CC97" s="94"/>
       <c r="CD97" s="95"/>
     </row>
-    <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I98" s="102"/>
       <c r="J98" s="103"/>
       <c r="K98" s="103"/>
@@ -16968,7 +18197,7 @@
       <c r="CC98" s="94"/>
       <c r="CD98" s="95"/>
     </row>
-    <row r="99" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I99" s="99"/>
       <c r="J99" s="100"/>
       <c r="K99" s="100"/>
@@ -17044,7 +18273,7 @@
       <c r="CC99" s="94"/>
       <c r="CD99" s="95"/>
     </row>
-    <row r="100" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I100" s="102"/>
       <c r="J100" s="103"/>
       <c r="K100" s="103"/>
@@ -17120,7 +18349,7 @@
       <c r="CC100" s="94"/>
       <c r="CD100" s="95"/>
     </row>
-    <row r="101" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I101" s="99"/>
       <c r="J101" s="100"/>
       <c r="K101" s="100"/>
@@ -17196,7 +18425,7 @@
       <c r="CC101" s="94"/>
       <c r="CD101" s="95"/>
     </row>
-    <row r="102" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I102" s="102"/>
       <c r="J102" s="103"/>
       <c r="K102" s="103"/>
@@ -17272,7 +18501,7 @@
       <c r="CC102" s="94"/>
       <c r="CD102" s="95"/>
     </row>
-    <row r="103" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I103" s="99"/>
       <c r="J103" s="100"/>
       <c r="K103" s="100"/>
@@ -17348,7 +18577,7 @@
       <c r="CC103" s="94"/>
       <c r="CD103" s="95"/>
     </row>
-    <row r="104" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I104" s="105"/>
       <c r="J104" s="106"/>
       <c r="K104" s="106"/>
@@ -17424,10 +18653,10 @@
       <c r="CC104" s="97"/>
       <c r="CD104" s="98"/>
     </row>
-    <row r="107" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="108" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="108" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" s="63" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J108" s="64"/>
       <c r="K108" s="64"/>
@@ -17503,7 +18732,7 @@
       <c r="CC108" s="64"/>
       <c r="CD108" s="65"/>
     </row>
-    <row r="109" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" s="66"/>
       <c r="J109" s="81"/>
       <c r="K109" s="81"/>
@@ -17579,7 +18808,7 @@
       <c r="CC109" s="81"/>
       <c r="CD109" s="68"/>
     </row>
-    <row r="110" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I110" s="69"/>
       <c r="J110" s="70"/>
       <c r="K110" s="70"/>
@@ -17655,10 +18884,10 @@
       <c r="CC110" s="70"/>
       <c r="CD110" s="71"/>
     </row>
-    <row r="111" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="112" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="112" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I112" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J112" s="88"/>
       <c r="K112" s="88"/>
@@ -17734,9 +18963,9 @@
       <c r="CC112" s="91"/>
       <c r="CD112" s="92"/>
     </row>
-    <row r="113" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" s="99" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="J113" s="100"/>
       <c r="K113" s="100"/>
@@ -17812,9 +19041,9 @@
       <c r="CC113" s="94"/>
       <c r="CD113" s="95"/>
     </row>
-    <row r="114" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" s="102" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="J114" s="103"/>
       <c r="K114" s="103"/>
@@ -17890,9 +19119,9 @@
       <c r="CC114" s="94"/>
       <c r="CD114" s="95"/>
     </row>
-    <row r="115" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" s="99" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="J115" s="100"/>
       <c r="K115" s="100"/>
@@ -17968,9 +19197,9 @@
       <c r="CC115" s="94"/>
       <c r="CD115" s="95"/>
     </row>
-    <row r="116" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I116" s="102" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="J116" s="103"/>
       <c r="K116" s="103"/>
@@ -18046,9 +19275,9 @@
       <c r="CC116" s="94"/>
       <c r="CD116" s="95"/>
     </row>
-    <row r="117" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I117" s="99" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="J117" s="100"/>
       <c r="K117" s="100"/>
@@ -18124,8 +19353,10 @@
       <c r="CC117" s="94"/>
       <c r="CD117" s="95"/>
     </row>
-    <row r="118" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I118" s="102"/>
+    <row r="118" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I118" s="102" t="s">
+        <v>162</v>
+      </c>
       <c r="J118" s="103"/>
       <c r="K118" s="103"/>
       <c r="L118" s="103"/>
@@ -18200,7 +19431,7 @@
       <c r="CC118" s="94"/>
       <c r="CD118" s="95"/>
     </row>
-    <row r="119" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I119" s="99"/>
       <c r="J119" s="100"/>
       <c r="K119" s="100"/>
@@ -18276,7 +19507,7 @@
       <c r="CC119" s="94"/>
       <c r="CD119" s="95"/>
     </row>
-    <row r="120" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I120" s="102"/>
       <c r="J120" s="103"/>
       <c r="K120" s="103"/>
@@ -18352,7 +19583,7 @@
       <c r="CC120" s="94"/>
       <c r="CD120" s="95"/>
     </row>
-    <row r="121" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I121" s="99"/>
       <c r="J121" s="100"/>
       <c r="K121" s="100"/>
@@ -18428,7 +19659,7 @@
       <c r="CC121" s="94"/>
       <c r="CD121" s="95"/>
     </row>
-    <row r="122" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I122" s="102"/>
       <c r="J122" s="103"/>
       <c r="K122" s="103"/>
@@ -18504,7 +19735,7 @@
       <c r="CC122" s="94"/>
       <c r="CD122" s="95"/>
     </row>
-    <row r="123" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I123" s="99"/>
       <c r="J123" s="100"/>
       <c r="K123" s="100"/>
@@ -18580,7 +19811,7 @@
       <c r="CC123" s="94"/>
       <c r="CD123" s="95"/>
     </row>
-    <row r="124" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I124" s="105"/>
       <c r="J124" s="106"/>
       <c r="K124" s="106"/>
@@ -18656,10 +19887,10 @@
       <c r="CC124" s="97"/>
       <c r="CD124" s="98"/>
     </row>
-    <row r="127" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="128" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="128" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I128" s="63" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J128" s="64"/>
       <c r="K128" s="64"/>
@@ -18735,7 +19966,7 @@
       <c r="CC128" s="64"/>
       <c r="CD128" s="65"/>
     </row>
-    <row r="129" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I129" s="66"/>
       <c r="J129" s="81"/>
       <c r="K129" s="81"/>
@@ -18811,7 +20042,7 @@
       <c r="CC129" s="81"/>
       <c r="CD129" s="68"/>
     </row>
-    <row r="130" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I130" s="69"/>
       <c r="J130" s="70"/>
       <c r="K130" s="70"/>
@@ -18887,10 +20118,10 @@
       <c r="CC130" s="70"/>
       <c r="CD130" s="71"/>
     </row>
-    <row r="131" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="132" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="132" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I132" s="87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J132" s="88"/>
       <c r="K132" s="88"/>
@@ -18966,9 +20197,9 @@
       <c r="CC132" s="91"/>
       <c r="CD132" s="92"/>
     </row>
-    <row r="133" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I133" s="99" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J133" s="100"/>
       <c r="K133" s="100"/>
@@ -19044,9 +20275,9 @@
       <c r="CC133" s="94"/>
       <c r="CD133" s="95"/>
     </row>
-    <row r="134" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I134" s="102" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="J134" s="103"/>
       <c r="K134" s="103"/>
@@ -19122,9 +20353,9 @@
       <c r="CC134" s="94"/>
       <c r="CD134" s="95"/>
     </row>
-    <row r="135" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I135" s="99" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="J135" s="100"/>
       <c r="K135" s="100"/>
@@ -19200,10 +20431,8 @@
       <c r="CC135" s="94"/>
       <c r="CD135" s="95"/>
     </row>
-    <row r="136" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I136" s="102" t="s">
-        <v>107</v>
-      </c>
+    <row r="136" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I136" s="102"/>
       <c r="J136" s="103"/>
       <c r="K136" s="103"/>
       <c r="L136" s="103"/>
@@ -19278,10 +20507,8 @@
       <c r="CC136" s="94"/>
       <c r="CD136" s="95"/>
     </row>
-    <row r="137" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I137" s="99" t="s">
-        <v>107</v>
-      </c>
+    <row r="137" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I137" s="99"/>
       <c r="J137" s="100"/>
       <c r="K137" s="100"/>
       <c r="L137" s="100"/>
@@ -19356,7 +20583,7 @@
       <c r="CC137" s="94"/>
       <c r="CD137" s="95"/>
     </row>
-    <row r="138" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I138" s="102"/>
       <c r="J138" s="103"/>
       <c r="K138" s="103"/>
@@ -19432,7 +20659,7 @@
       <c r="CC138" s="94"/>
       <c r="CD138" s="95"/>
     </row>
-    <row r="139" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I139" s="99"/>
       <c r="J139" s="100"/>
       <c r="K139" s="100"/>
@@ -19508,7 +20735,7 @@
       <c r="CC139" s="94"/>
       <c r="CD139" s="95"/>
     </row>
-    <row r="140" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I140" s="102"/>
       <c r="J140" s="103"/>
       <c r="K140" s="103"/>
@@ -19584,7 +20811,7 @@
       <c r="CC140" s="94"/>
       <c r="CD140" s="95"/>
     </row>
-    <row r="141" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I141" s="99"/>
       <c r="J141" s="100"/>
       <c r="K141" s="100"/>
@@ -19660,7 +20887,7 @@
       <c r="CC141" s="94"/>
       <c r="CD141" s="95"/>
     </row>
-    <row r="142" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I142" s="102"/>
       <c r="J142" s="103"/>
       <c r="K142" s="103"/>
@@ -19736,7 +20963,7 @@
       <c r="CC142" s="94"/>
       <c r="CD142" s="95"/>
     </row>
-    <row r="143" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I143" s="99"/>
       <c r="J143" s="100"/>
       <c r="K143" s="100"/>
@@ -19812,7 +21039,7 @@
       <c r="CC143" s="94"/>
       <c r="CD143" s="95"/>
     </row>
-    <row r="144" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I144" s="105"/>
       <c r="J144" s="106"/>
       <c r="K144" s="106"/>
@@ -19888,8 +21115,1240 @@
       <c r="CC144" s="97"/>
       <c r="CD144" s="98"/>
     </row>
+    <row r="147" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="148" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I148" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="J148" s="64"/>
+      <c r="K148" s="64"/>
+      <c r="L148" s="64"/>
+      <c r="M148" s="64"/>
+      <c r="N148" s="64"/>
+      <c r="O148" s="64"/>
+      <c r="P148" s="64"/>
+      <c r="Q148" s="64"/>
+      <c r="R148" s="64"/>
+      <c r="S148" s="64"/>
+      <c r="T148" s="64"/>
+      <c r="U148" s="64"/>
+      <c r="V148" s="64"/>
+      <c r="W148" s="64"/>
+      <c r="X148" s="64"/>
+      <c r="Y148" s="64"/>
+      <c r="Z148" s="64"/>
+      <c r="AA148" s="64"/>
+      <c r="AB148" s="64"/>
+      <c r="AC148" s="64"/>
+      <c r="AD148" s="64"/>
+      <c r="AE148" s="64"/>
+      <c r="AF148" s="64"/>
+      <c r="AG148" s="64"/>
+      <c r="AH148" s="64"/>
+      <c r="AI148" s="64"/>
+      <c r="AJ148" s="64"/>
+      <c r="AK148" s="64"/>
+      <c r="AL148" s="64"/>
+      <c r="AM148" s="64"/>
+      <c r="AN148" s="64"/>
+      <c r="AO148" s="64"/>
+      <c r="AP148" s="64"/>
+      <c r="AQ148" s="64"/>
+      <c r="AR148" s="64"/>
+      <c r="AS148" s="64"/>
+      <c r="AT148" s="64"/>
+      <c r="AU148" s="64"/>
+      <c r="AV148" s="64"/>
+      <c r="AW148" s="64"/>
+      <c r="AX148" s="64"/>
+      <c r="AY148" s="64"/>
+      <c r="AZ148" s="64"/>
+      <c r="BA148" s="64"/>
+      <c r="BB148" s="64"/>
+      <c r="BC148" s="64"/>
+      <c r="BD148" s="64"/>
+      <c r="BE148" s="64"/>
+      <c r="BF148" s="64"/>
+      <c r="BG148" s="64"/>
+      <c r="BH148" s="64"/>
+      <c r="BI148" s="64"/>
+      <c r="BJ148" s="64"/>
+      <c r="BK148" s="64"/>
+      <c r="BL148" s="64"/>
+      <c r="BM148" s="64"/>
+      <c r="BN148" s="64"/>
+      <c r="BO148" s="64"/>
+      <c r="BP148" s="64"/>
+      <c r="BQ148" s="64"/>
+      <c r="BR148" s="64"/>
+      <c r="BS148" s="64"/>
+      <c r="BT148" s="64"/>
+      <c r="BU148" s="64"/>
+      <c r="BV148" s="64"/>
+      <c r="BW148" s="64"/>
+      <c r="BX148" s="64"/>
+      <c r="BY148" s="64"/>
+      <c r="BZ148" s="64"/>
+      <c r="CA148" s="64"/>
+      <c r="CB148" s="64"/>
+      <c r="CC148" s="64"/>
+      <c r="CD148" s="65"/>
+    </row>
+    <row r="149" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I149" s="66"/>
+      <c r="J149" s="81"/>
+      <c r="K149" s="81"/>
+      <c r="L149" s="81"/>
+      <c r="M149" s="81"/>
+      <c r="N149" s="81"/>
+      <c r="O149" s="81"/>
+      <c r="P149" s="81"/>
+      <c r="Q149" s="81"/>
+      <c r="R149" s="81"/>
+      <c r="S149" s="81"/>
+      <c r="T149" s="81"/>
+      <c r="U149" s="81"/>
+      <c r="V149" s="81"/>
+      <c r="W149" s="81"/>
+      <c r="X149" s="81"/>
+      <c r="Y149" s="81"/>
+      <c r="Z149" s="81"/>
+      <c r="AA149" s="81"/>
+      <c r="AB149" s="81"/>
+      <c r="AC149" s="81"/>
+      <c r="AD149" s="81"/>
+      <c r="AE149" s="81"/>
+      <c r="AF149" s="81"/>
+      <c r="AG149" s="81"/>
+      <c r="AH149" s="81"/>
+      <c r="AI149" s="81"/>
+      <c r="AJ149" s="81"/>
+      <c r="AK149" s="81"/>
+      <c r="AL149" s="81"/>
+      <c r="AM149" s="81"/>
+      <c r="AN149" s="81"/>
+      <c r="AO149" s="81"/>
+      <c r="AP149" s="81"/>
+      <c r="AQ149" s="81"/>
+      <c r="AR149" s="81"/>
+      <c r="AS149" s="81"/>
+      <c r="AT149" s="81"/>
+      <c r="AU149" s="81"/>
+      <c r="AV149" s="81"/>
+      <c r="AW149" s="81"/>
+      <c r="AX149" s="81"/>
+      <c r="AY149" s="81"/>
+      <c r="AZ149" s="81"/>
+      <c r="BA149" s="81"/>
+      <c r="BB149" s="81"/>
+      <c r="BC149" s="81"/>
+      <c r="BD149" s="81"/>
+      <c r="BE149" s="81"/>
+      <c r="BF149" s="81"/>
+      <c r="BG149" s="81"/>
+      <c r="BH149" s="81"/>
+      <c r="BI149" s="81"/>
+      <c r="BJ149" s="81"/>
+      <c r="BK149" s="81"/>
+      <c r="BL149" s="81"/>
+      <c r="BM149" s="81"/>
+      <c r="BN149" s="81"/>
+      <c r="BO149" s="81"/>
+      <c r="BP149" s="81"/>
+      <c r="BQ149" s="81"/>
+      <c r="BR149" s="81"/>
+      <c r="BS149" s="81"/>
+      <c r="BT149" s="81"/>
+      <c r="BU149" s="81"/>
+      <c r="BV149" s="81"/>
+      <c r="BW149" s="81"/>
+      <c r="BX149" s="81"/>
+      <c r="BY149" s="81"/>
+      <c r="BZ149" s="81"/>
+      <c r="CA149" s="81"/>
+      <c r="CB149" s="81"/>
+      <c r="CC149" s="81"/>
+      <c r="CD149" s="68"/>
+    </row>
+    <row r="150" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I150" s="69"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="70"/>
+      <c r="M150" s="70"/>
+      <c r="N150" s="70"/>
+      <c r="O150" s="70"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="70"/>
+      <c r="R150" s="70"/>
+      <c r="S150" s="70"/>
+      <c r="T150" s="70"/>
+      <c r="U150" s="70"/>
+      <c r="V150" s="70"/>
+      <c r="W150" s="70"/>
+      <c r="X150" s="70"/>
+      <c r="Y150" s="70"/>
+      <c r="Z150" s="70"/>
+      <c r="AA150" s="70"/>
+      <c r="AB150" s="70"/>
+      <c r="AC150" s="70"/>
+      <c r="AD150" s="70"/>
+      <c r="AE150" s="70"/>
+      <c r="AF150" s="70"/>
+      <c r="AG150" s="70"/>
+      <c r="AH150" s="70"/>
+      <c r="AI150" s="70"/>
+      <c r="AJ150" s="70"/>
+      <c r="AK150" s="70"/>
+      <c r="AL150" s="70"/>
+      <c r="AM150" s="70"/>
+      <c r="AN150" s="70"/>
+      <c r="AO150" s="70"/>
+      <c r="AP150" s="70"/>
+      <c r="AQ150" s="70"/>
+      <c r="AR150" s="70"/>
+      <c r="AS150" s="70"/>
+      <c r="AT150" s="70"/>
+      <c r="AU150" s="70"/>
+      <c r="AV150" s="70"/>
+      <c r="AW150" s="70"/>
+      <c r="AX150" s="70"/>
+      <c r="AY150" s="70"/>
+      <c r="AZ150" s="70"/>
+      <c r="BA150" s="70"/>
+      <c r="BB150" s="70"/>
+      <c r="BC150" s="70"/>
+      <c r="BD150" s="70"/>
+      <c r="BE150" s="70"/>
+      <c r="BF150" s="70"/>
+      <c r="BG150" s="70"/>
+      <c r="BH150" s="70"/>
+      <c r="BI150" s="70"/>
+      <c r="BJ150" s="70"/>
+      <c r="BK150" s="70"/>
+      <c r="BL150" s="70"/>
+      <c r="BM150" s="70"/>
+      <c r="BN150" s="70"/>
+      <c r="BO150" s="70"/>
+      <c r="BP150" s="70"/>
+      <c r="BQ150" s="70"/>
+      <c r="BR150" s="70"/>
+      <c r="BS150" s="70"/>
+      <c r="BT150" s="70"/>
+      <c r="BU150" s="70"/>
+      <c r="BV150" s="70"/>
+      <c r="BW150" s="70"/>
+      <c r="BX150" s="70"/>
+      <c r="BY150" s="70"/>
+      <c r="BZ150" s="70"/>
+      <c r="CA150" s="70"/>
+      <c r="CB150" s="70"/>
+      <c r="CC150" s="70"/>
+      <c r="CD150" s="71"/>
+    </row>
+    <row r="151" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="152" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I152" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="J152" s="88"/>
+      <c r="K152" s="88"/>
+      <c r="L152" s="88"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
+      <c r="O152" s="88"/>
+      <c r="P152" s="88"/>
+      <c r="Q152" s="88"/>
+      <c r="R152" s="88"/>
+      <c r="S152" s="88"/>
+      <c r="T152" s="88"/>
+      <c r="U152" s="88"/>
+      <c r="V152" s="88"/>
+      <c r="W152" s="88"/>
+      <c r="X152" s="88"/>
+      <c r="Y152" s="88"/>
+      <c r="Z152" s="88"/>
+      <c r="AA152" s="88"/>
+      <c r="AB152" s="88"/>
+      <c r="AC152" s="88"/>
+      <c r="AD152" s="88"/>
+      <c r="AE152" s="88"/>
+      <c r="AF152" s="88"/>
+      <c r="AG152" s="88"/>
+      <c r="AH152" s="88"/>
+      <c r="AI152" s="88"/>
+      <c r="AJ152" s="88"/>
+      <c r="AK152" s="88"/>
+      <c r="AL152" s="88"/>
+      <c r="AM152" s="88"/>
+      <c r="AN152" s="88"/>
+      <c r="AO152" s="88"/>
+      <c r="AP152" s="88"/>
+      <c r="AQ152" s="88"/>
+      <c r="AR152" s="88"/>
+      <c r="AS152" s="88"/>
+      <c r="AT152" s="88"/>
+      <c r="AU152" s="88"/>
+      <c r="AV152" s="88"/>
+      <c r="AW152" s="88"/>
+      <c r="AX152" s="88"/>
+      <c r="AY152" s="88"/>
+      <c r="AZ152" s="89"/>
+      <c r="BA152" s="90"/>
+      <c r="BB152" s="91"/>
+      <c r="BC152" s="91"/>
+      <c r="BD152" s="91"/>
+      <c r="BE152" s="91"/>
+      <c r="BF152" s="91"/>
+      <c r="BG152" s="91"/>
+      <c r="BH152" s="91"/>
+      <c r="BI152" s="91"/>
+      <c r="BJ152" s="91"/>
+      <c r="BK152" s="91"/>
+      <c r="BL152" s="91"/>
+      <c r="BM152" s="91"/>
+      <c r="BN152" s="91"/>
+      <c r="BO152" s="91"/>
+      <c r="BP152" s="91"/>
+      <c r="BQ152" s="91"/>
+      <c r="BR152" s="91"/>
+      <c r="BS152" s="91"/>
+      <c r="BT152" s="91"/>
+      <c r="BU152" s="91"/>
+      <c r="BV152" s="91"/>
+      <c r="BW152" s="91"/>
+      <c r="BX152" s="91"/>
+      <c r="BY152" s="91"/>
+      <c r="BZ152" s="91"/>
+      <c r="CA152" s="91"/>
+      <c r="CB152" s="91"/>
+      <c r="CC152" s="91"/>
+      <c r="CD152" s="92"/>
+    </row>
+    <row r="153" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I153" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="J153" s="100"/>
+      <c r="K153" s="100"/>
+      <c r="L153" s="100"/>
+      <c r="M153" s="100"/>
+      <c r="N153" s="100"/>
+      <c r="O153" s="100"/>
+      <c r="P153" s="100"/>
+      <c r="Q153" s="100"/>
+      <c r="R153" s="100"/>
+      <c r="S153" s="100"/>
+      <c r="T153" s="100"/>
+      <c r="U153" s="100"/>
+      <c r="V153" s="100"/>
+      <c r="W153" s="100"/>
+      <c r="X153" s="100"/>
+      <c r="Y153" s="100"/>
+      <c r="Z153" s="100"/>
+      <c r="AA153" s="100"/>
+      <c r="AB153" s="100"/>
+      <c r="AC153" s="100"/>
+      <c r="AD153" s="100"/>
+      <c r="AE153" s="100"/>
+      <c r="AF153" s="100"/>
+      <c r="AG153" s="100"/>
+      <c r="AH153" s="100"/>
+      <c r="AI153" s="100"/>
+      <c r="AJ153" s="100"/>
+      <c r="AK153" s="100"/>
+      <c r="AL153" s="100"/>
+      <c r="AM153" s="100"/>
+      <c r="AN153" s="100"/>
+      <c r="AO153" s="100"/>
+      <c r="AP153" s="100"/>
+      <c r="AQ153" s="100"/>
+      <c r="AR153" s="100"/>
+      <c r="AS153" s="100"/>
+      <c r="AT153" s="100"/>
+      <c r="AU153" s="100"/>
+      <c r="AV153" s="100"/>
+      <c r="AW153" s="100"/>
+      <c r="AX153" s="100"/>
+      <c r="AY153" s="100"/>
+      <c r="AZ153" s="101"/>
+      <c r="BA153" s="93"/>
+      <c r="BB153" s="94"/>
+      <c r="BC153" s="94"/>
+      <c r="BD153" s="94"/>
+      <c r="BE153" s="94"/>
+      <c r="BF153" s="94"/>
+      <c r="BG153" s="94"/>
+      <c r="BH153" s="94"/>
+      <c r="BI153" s="94"/>
+      <c r="BJ153" s="94"/>
+      <c r="BK153" s="94"/>
+      <c r="BL153" s="94"/>
+      <c r="BM153" s="94"/>
+      <c r="BN153" s="94"/>
+      <c r="BO153" s="94"/>
+      <c r="BP153" s="94"/>
+      <c r="BQ153" s="94"/>
+      <c r="BR153" s="94"/>
+      <c r="BS153" s="94"/>
+      <c r="BT153" s="94"/>
+      <c r="BU153" s="94"/>
+      <c r="BV153" s="94"/>
+      <c r="BW153" s="94"/>
+      <c r="BX153" s="94"/>
+      <c r="BY153" s="94"/>
+      <c r="BZ153" s="94"/>
+      <c r="CA153" s="94"/>
+      <c r="CB153" s="94"/>
+      <c r="CC153" s="94"/>
+      <c r="CD153" s="95"/>
+    </row>
+    <row r="154" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I154" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="J154" s="103"/>
+      <c r="K154" s="103"/>
+      <c r="L154" s="103"/>
+      <c r="M154" s="103"/>
+      <c r="N154" s="103"/>
+      <c r="O154" s="103"/>
+      <c r="P154" s="103"/>
+      <c r="Q154" s="103"/>
+      <c r="R154" s="103"/>
+      <c r="S154" s="103"/>
+      <c r="T154" s="103"/>
+      <c r="U154" s="103"/>
+      <c r="V154" s="103"/>
+      <c r="W154" s="103"/>
+      <c r="X154" s="103"/>
+      <c r="Y154" s="103"/>
+      <c r="Z154" s="103"/>
+      <c r="AA154" s="103"/>
+      <c r="AB154" s="103"/>
+      <c r="AC154" s="103"/>
+      <c r="AD154" s="103"/>
+      <c r="AE154" s="103"/>
+      <c r="AF154" s="103"/>
+      <c r="AG154" s="103"/>
+      <c r="AH154" s="103"/>
+      <c r="AI154" s="103"/>
+      <c r="AJ154" s="103"/>
+      <c r="AK154" s="103"/>
+      <c r="AL154" s="103"/>
+      <c r="AM154" s="103"/>
+      <c r="AN154" s="103"/>
+      <c r="AO154" s="103"/>
+      <c r="AP154" s="103"/>
+      <c r="AQ154" s="103"/>
+      <c r="AR154" s="103"/>
+      <c r="AS154" s="103"/>
+      <c r="AT154" s="103"/>
+      <c r="AU154" s="103"/>
+      <c r="AV154" s="103"/>
+      <c r="AW154" s="103"/>
+      <c r="AX154" s="103"/>
+      <c r="AY154" s="103"/>
+      <c r="AZ154" s="104"/>
+      <c r="BA154" s="93"/>
+      <c r="BB154" s="94"/>
+      <c r="BC154" s="94"/>
+      <c r="BD154" s="94"/>
+      <c r="BE154" s="94"/>
+      <c r="BF154" s="94"/>
+      <c r="BG154" s="94"/>
+      <c r="BH154" s="94"/>
+      <c r="BI154" s="94"/>
+      <c r="BJ154" s="94"/>
+      <c r="BK154" s="94"/>
+      <c r="BL154" s="94"/>
+      <c r="BM154" s="94"/>
+      <c r="BN154" s="94"/>
+      <c r="BO154" s="94"/>
+      <c r="BP154" s="94"/>
+      <c r="BQ154" s="94"/>
+      <c r="BR154" s="94"/>
+      <c r="BS154" s="94"/>
+      <c r="BT154" s="94"/>
+      <c r="BU154" s="94"/>
+      <c r="BV154" s="94"/>
+      <c r="BW154" s="94"/>
+      <c r="BX154" s="94"/>
+      <c r="BY154" s="94"/>
+      <c r="BZ154" s="94"/>
+      <c r="CA154" s="94"/>
+      <c r="CB154" s="94"/>
+      <c r="CC154" s="94"/>
+      <c r="CD154" s="95"/>
+    </row>
+    <row r="155" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I155" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="J155" s="100"/>
+      <c r="K155" s="100"/>
+      <c r="L155" s="100"/>
+      <c r="M155" s="100"/>
+      <c r="N155" s="100"/>
+      <c r="O155" s="100"/>
+      <c r="P155" s="100"/>
+      <c r="Q155" s="100"/>
+      <c r="R155" s="100"/>
+      <c r="S155" s="100"/>
+      <c r="T155" s="100"/>
+      <c r="U155" s="100"/>
+      <c r="V155" s="100"/>
+      <c r="W155" s="100"/>
+      <c r="X155" s="100"/>
+      <c r="Y155" s="100"/>
+      <c r="Z155" s="100"/>
+      <c r="AA155" s="100"/>
+      <c r="AB155" s="100"/>
+      <c r="AC155" s="100"/>
+      <c r="AD155" s="100"/>
+      <c r="AE155" s="100"/>
+      <c r="AF155" s="100"/>
+      <c r="AG155" s="100"/>
+      <c r="AH155" s="100"/>
+      <c r="AI155" s="100"/>
+      <c r="AJ155" s="100"/>
+      <c r="AK155" s="100"/>
+      <c r="AL155" s="100"/>
+      <c r="AM155" s="100"/>
+      <c r="AN155" s="100"/>
+      <c r="AO155" s="100"/>
+      <c r="AP155" s="100"/>
+      <c r="AQ155" s="100"/>
+      <c r="AR155" s="100"/>
+      <c r="AS155" s="100"/>
+      <c r="AT155" s="100"/>
+      <c r="AU155" s="100"/>
+      <c r="AV155" s="100"/>
+      <c r="AW155" s="100"/>
+      <c r="AX155" s="100"/>
+      <c r="AY155" s="100"/>
+      <c r="AZ155" s="101"/>
+      <c r="BA155" s="93"/>
+      <c r="BB155" s="94"/>
+      <c r="BC155" s="94"/>
+      <c r="BD155" s="94"/>
+      <c r="BE155" s="94"/>
+      <c r="BF155" s="94"/>
+      <c r="BG155" s="94"/>
+      <c r="BH155" s="94"/>
+      <c r="BI155" s="94"/>
+      <c r="BJ155" s="94"/>
+      <c r="BK155" s="94"/>
+      <c r="BL155" s="94"/>
+      <c r="BM155" s="94"/>
+      <c r="BN155" s="94"/>
+      <c r="BO155" s="94"/>
+      <c r="BP155" s="94"/>
+      <c r="BQ155" s="94"/>
+      <c r="BR155" s="94"/>
+      <c r="BS155" s="94"/>
+      <c r="BT155" s="94"/>
+      <c r="BU155" s="94"/>
+      <c r="BV155" s="94"/>
+      <c r="BW155" s="94"/>
+      <c r="BX155" s="94"/>
+      <c r="BY155" s="94"/>
+      <c r="BZ155" s="94"/>
+      <c r="CA155" s="94"/>
+      <c r="CB155" s="94"/>
+      <c r="CC155" s="94"/>
+      <c r="CD155" s="95"/>
+    </row>
+    <row r="156" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I156" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="J156" s="103"/>
+      <c r="K156" s="103"/>
+      <c r="L156" s="103"/>
+      <c r="M156" s="103"/>
+      <c r="N156" s="103"/>
+      <c r="O156" s="103"/>
+      <c r="P156" s="103"/>
+      <c r="Q156" s="103"/>
+      <c r="R156" s="103"/>
+      <c r="S156" s="103"/>
+      <c r="T156" s="103"/>
+      <c r="U156" s="103"/>
+      <c r="V156" s="103"/>
+      <c r="W156" s="103"/>
+      <c r="X156" s="103"/>
+      <c r="Y156" s="103"/>
+      <c r="Z156" s="103"/>
+      <c r="AA156" s="103"/>
+      <c r="AB156" s="103"/>
+      <c r="AC156" s="103"/>
+      <c r="AD156" s="103"/>
+      <c r="AE156" s="103"/>
+      <c r="AF156" s="103"/>
+      <c r="AG156" s="103"/>
+      <c r="AH156" s="103"/>
+      <c r="AI156" s="103"/>
+      <c r="AJ156" s="103"/>
+      <c r="AK156" s="103"/>
+      <c r="AL156" s="103"/>
+      <c r="AM156" s="103"/>
+      <c r="AN156" s="103"/>
+      <c r="AO156" s="103"/>
+      <c r="AP156" s="103"/>
+      <c r="AQ156" s="103"/>
+      <c r="AR156" s="103"/>
+      <c r="AS156" s="103"/>
+      <c r="AT156" s="103"/>
+      <c r="AU156" s="103"/>
+      <c r="AV156" s="103"/>
+      <c r="AW156" s="103"/>
+      <c r="AX156" s="103"/>
+      <c r="AY156" s="103"/>
+      <c r="AZ156" s="104"/>
+      <c r="BA156" s="93"/>
+      <c r="BB156" s="94"/>
+      <c r="BC156" s="94"/>
+      <c r="BD156" s="94"/>
+      <c r="BE156" s="94"/>
+      <c r="BF156" s="94"/>
+      <c r="BG156" s="94"/>
+      <c r="BH156" s="94"/>
+      <c r="BI156" s="94"/>
+      <c r="BJ156" s="94"/>
+      <c r="BK156" s="94"/>
+      <c r="BL156" s="94"/>
+      <c r="BM156" s="94"/>
+      <c r="BN156" s="94"/>
+      <c r="BO156" s="94"/>
+      <c r="BP156" s="94"/>
+      <c r="BQ156" s="94"/>
+      <c r="BR156" s="94"/>
+      <c r="BS156" s="94"/>
+      <c r="BT156" s="94"/>
+      <c r="BU156" s="94"/>
+      <c r="BV156" s="94"/>
+      <c r="BW156" s="94"/>
+      <c r="BX156" s="94"/>
+      <c r="BY156" s="94"/>
+      <c r="BZ156" s="94"/>
+      <c r="CA156" s="94"/>
+      <c r="CB156" s="94"/>
+      <c r="CC156" s="94"/>
+      <c r="CD156" s="95"/>
+    </row>
+    <row r="157" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I157" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="J157" s="100"/>
+      <c r="K157" s="100"/>
+      <c r="L157" s="100"/>
+      <c r="M157" s="100"/>
+      <c r="N157" s="100"/>
+      <c r="O157" s="100"/>
+      <c r="P157" s="100"/>
+      <c r="Q157" s="100"/>
+      <c r="R157" s="100"/>
+      <c r="S157" s="100"/>
+      <c r="T157" s="100"/>
+      <c r="U157" s="100"/>
+      <c r="V157" s="100"/>
+      <c r="W157" s="100"/>
+      <c r="X157" s="100"/>
+      <c r="Y157" s="100"/>
+      <c r="Z157" s="100"/>
+      <c r="AA157" s="100"/>
+      <c r="AB157" s="100"/>
+      <c r="AC157" s="100"/>
+      <c r="AD157" s="100"/>
+      <c r="AE157" s="100"/>
+      <c r="AF157" s="100"/>
+      <c r="AG157" s="100"/>
+      <c r="AH157" s="100"/>
+      <c r="AI157" s="100"/>
+      <c r="AJ157" s="100"/>
+      <c r="AK157" s="100"/>
+      <c r="AL157" s="100"/>
+      <c r="AM157" s="100"/>
+      <c r="AN157" s="100"/>
+      <c r="AO157" s="100"/>
+      <c r="AP157" s="100"/>
+      <c r="AQ157" s="100"/>
+      <c r="AR157" s="100"/>
+      <c r="AS157" s="100"/>
+      <c r="AT157" s="100"/>
+      <c r="AU157" s="100"/>
+      <c r="AV157" s="100"/>
+      <c r="AW157" s="100"/>
+      <c r="AX157" s="100"/>
+      <c r="AY157" s="100"/>
+      <c r="AZ157" s="101"/>
+      <c r="BA157" s="93"/>
+      <c r="BB157" s="94"/>
+      <c r="BC157" s="94"/>
+      <c r="BD157" s="94"/>
+      <c r="BE157" s="94"/>
+      <c r="BF157" s="94"/>
+      <c r="BG157" s="94"/>
+      <c r="BH157" s="94"/>
+      <c r="BI157" s="94"/>
+      <c r="BJ157" s="94"/>
+      <c r="BK157" s="94"/>
+      <c r="BL157" s="94"/>
+      <c r="BM157" s="94"/>
+      <c r="BN157" s="94"/>
+      <c r="BO157" s="94"/>
+      <c r="BP157" s="94"/>
+      <c r="BQ157" s="94"/>
+      <c r="BR157" s="94"/>
+      <c r="BS157" s="94"/>
+      <c r="BT157" s="94"/>
+      <c r="BU157" s="94"/>
+      <c r="BV157" s="94"/>
+      <c r="BW157" s="94"/>
+      <c r="BX157" s="94"/>
+      <c r="BY157" s="94"/>
+      <c r="BZ157" s="94"/>
+      <c r="CA157" s="94"/>
+      <c r="CB157" s="94"/>
+      <c r="CC157" s="94"/>
+      <c r="CD157" s="95"/>
+    </row>
+    <row r="158" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I158" s="102"/>
+      <c r="J158" s="103"/>
+      <c r="K158" s="103"/>
+      <c r="L158" s="103"/>
+      <c r="M158" s="103"/>
+      <c r="N158" s="103"/>
+      <c r="O158" s="103"/>
+      <c r="P158" s="103"/>
+      <c r="Q158" s="103"/>
+      <c r="R158" s="103"/>
+      <c r="S158" s="103"/>
+      <c r="T158" s="103"/>
+      <c r="U158" s="103"/>
+      <c r="V158" s="103"/>
+      <c r="W158" s="103"/>
+      <c r="X158" s="103"/>
+      <c r="Y158" s="103"/>
+      <c r="Z158" s="103"/>
+      <c r="AA158" s="103"/>
+      <c r="AB158" s="103"/>
+      <c r="AC158" s="103"/>
+      <c r="AD158" s="103"/>
+      <c r="AE158" s="103"/>
+      <c r="AF158" s="103"/>
+      <c r="AG158" s="103"/>
+      <c r="AH158" s="103"/>
+      <c r="AI158" s="103"/>
+      <c r="AJ158" s="103"/>
+      <c r="AK158" s="103"/>
+      <c r="AL158" s="103"/>
+      <c r="AM158" s="103"/>
+      <c r="AN158" s="103"/>
+      <c r="AO158" s="103"/>
+      <c r="AP158" s="103"/>
+      <c r="AQ158" s="103"/>
+      <c r="AR158" s="103"/>
+      <c r="AS158" s="103"/>
+      <c r="AT158" s="103"/>
+      <c r="AU158" s="103"/>
+      <c r="AV158" s="103"/>
+      <c r="AW158" s="103"/>
+      <c r="AX158" s="103"/>
+      <c r="AY158" s="103"/>
+      <c r="AZ158" s="104"/>
+      <c r="BA158" s="93"/>
+      <c r="BB158" s="94"/>
+      <c r="BC158" s="94"/>
+      <c r="BD158" s="94"/>
+      <c r="BE158" s="94"/>
+      <c r="BF158" s="94"/>
+      <c r="BG158" s="94"/>
+      <c r="BH158" s="94"/>
+      <c r="BI158" s="94"/>
+      <c r="BJ158" s="94"/>
+      <c r="BK158" s="94"/>
+      <c r="BL158" s="94"/>
+      <c r="BM158" s="94"/>
+      <c r="BN158" s="94"/>
+      <c r="BO158" s="94"/>
+      <c r="BP158" s="94"/>
+      <c r="BQ158" s="94"/>
+      <c r="BR158" s="94"/>
+      <c r="BS158" s="94"/>
+      <c r="BT158" s="94"/>
+      <c r="BU158" s="94"/>
+      <c r="BV158" s="94"/>
+      <c r="BW158" s="94"/>
+      <c r="BX158" s="94"/>
+      <c r="BY158" s="94"/>
+      <c r="BZ158" s="94"/>
+      <c r="CA158" s="94"/>
+      <c r="CB158" s="94"/>
+      <c r="CC158" s="94"/>
+      <c r="CD158" s="95"/>
+    </row>
+    <row r="159" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I159" s="99"/>
+      <c r="J159" s="100"/>
+      <c r="K159" s="100"/>
+      <c r="L159" s="100"/>
+      <c r="M159" s="100"/>
+      <c r="N159" s="100"/>
+      <c r="O159" s="100"/>
+      <c r="P159" s="100"/>
+      <c r="Q159" s="100"/>
+      <c r="R159" s="100"/>
+      <c r="S159" s="100"/>
+      <c r="T159" s="100"/>
+      <c r="U159" s="100"/>
+      <c r="V159" s="100"/>
+      <c r="W159" s="100"/>
+      <c r="X159" s="100"/>
+      <c r="Y159" s="100"/>
+      <c r="Z159" s="100"/>
+      <c r="AA159" s="100"/>
+      <c r="AB159" s="100"/>
+      <c r="AC159" s="100"/>
+      <c r="AD159" s="100"/>
+      <c r="AE159" s="100"/>
+      <c r="AF159" s="100"/>
+      <c r="AG159" s="100"/>
+      <c r="AH159" s="100"/>
+      <c r="AI159" s="100"/>
+      <c r="AJ159" s="100"/>
+      <c r="AK159" s="100"/>
+      <c r="AL159" s="100"/>
+      <c r="AM159" s="100"/>
+      <c r="AN159" s="100"/>
+      <c r="AO159" s="100"/>
+      <c r="AP159" s="100"/>
+      <c r="AQ159" s="100"/>
+      <c r="AR159" s="100"/>
+      <c r="AS159" s="100"/>
+      <c r="AT159" s="100"/>
+      <c r="AU159" s="100"/>
+      <c r="AV159" s="100"/>
+      <c r="AW159" s="100"/>
+      <c r="AX159" s="100"/>
+      <c r="AY159" s="100"/>
+      <c r="AZ159" s="101"/>
+      <c r="BA159" s="93"/>
+      <c r="BB159" s="94"/>
+      <c r="BC159" s="94"/>
+      <c r="BD159" s="94"/>
+      <c r="BE159" s="94"/>
+      <c r="BF159" s="94"/>
+      <c r="BG159" s="94"/>
+      <c r="BH159" s="94"/>
+      <c r="BI159" s="94"/>
+      <c r="BJ159" s="94"/>
+      <c r="BK159" s="94"/>
+      <c r="BL159" s="94"/>
+      <c r="BM159" s="94"/>
+      <c r="BN159" s="94"/>
+      <c r="BO159" s="94"/>
+      <c r="BP159" s="94"/>
+      <c r="BQ159" s="94"/>
+      <c r="BR159" s="94"/>
+      <c r="BS159" s="94"/>
+      <c r="BT159" s="94"/>
+      <c r="BU159" s="94"/>
+      <c r="BV159" s="94"/>
+      <c r="BW159" s="94"/>
+      <c r="BX159" s="94"/>
+      <c r="BY159" s="94"/>
+      <c r="BZ159" s="94"/>
+      <c r="CA159" s="94"/>
+      <c r="CB159" s="94"/>
+      <c r="CC159" s="94"/>
+      <c r="CD159" s="95"/>
+    </row>
+    <row r="160" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I160" s="102"/>
+      <c r="J160" s="103"/>
+      <c r="K160" s="103"/>
+      <c r="L160" s="103"/>
+      <c r="M160" s="103"/>
+      <c r="N160" s="103"/>
+      <c r="O160" s="103"/>
+      <c r="P160" s="103"/>
+      <c r="Q160" s="103"/>
+      <c r="R160" s="103"/>
+      <c r="S160" s="103"/>
+      <c r="T160" s="103"/>
+      <c r="U160" s="103"/>
+      <c r="V160" s="103"/>
+      <c r="W160" s="103"/>
+      <c r="X160" s="103"/>
+      <c r="Y160" s="103"/>
+      <c r="Z160" s="103"/>
+      <c r="AA160" s="103"/>
+      <c r="AB160" s="103"/>
+      <c r="AC160" s="103"/>
+      <c r="AD160" s="103"/>
+      <c r="AE160" s="103"/>
+      <c r="AF160" s="103"/>
+      <c r="AG160" s="103"/>
+      <c r="AH160" s="103"/>
+      <c r="AI160" s="103"/>
+      <c r="AJ160" s="103"/>
+      <c r="AK160" s="103"/>
+      <c r="AL160" s="103"/>
+      <c r="AM160" s="103"/>
+      <c r="AN160" s="103"/>
+      <c r="AO160" s="103"/>
+      <c r="AP160" s="103"/>
+      <c r="AQ160" s="103"/>
+      <c r="AR160" s="103"/>
+      <c r="AS160" s="103"/>
+      <c r="AT160" s="103"/>
+      <c r="AU160" s="103"/>
+      <c r="AV160" s="103"/>
+      <c r="AW160" s="103"/>
+      <c r="AX160" s="103"/>
+      <c r="AY160" s="103"/>
+      <c r="AZ160" s="104"/>
+      <c r="BA160" s="93"/>
+      <c r="BB160" s="94"/>
+      <c r="BC160" s="94"/>
+      <c r="BD160" s="94"/>
+      <c r="BE160" s="94"/>
+      <c r="BF160" s="94"/>
+      <c r="BG160" s="94"/>
+      <c r="BH160" s="94"/>
+      <c r="BI160" s="94"/>
+      <c r="BJ160" s="94"/>
+      <c r="BK160" s="94"/>
+      <c r="BL160" s="94"/>
+      <c r="BM160" s="94"/>
+      <c r="BN160" s="94"/>
+      <c r="BO160" s="94"/>
+      <c r="BP160" s="94"/>
+      <c r="BQ160" s="94"/>
+      <c r="BR160" s="94"/>
+      <c r="BS160" s="94"/>
+      <c r="BT160" s="94"/>
+      <c r="BU160" s="94"/>
+      <c r="BV160" s="94"/>
+      <c r="BW160" s="94"/>
+      <c r="BX160" s="94"/>
+      <c r="BY160" s="94"/>
+      <c r="BZ160" s="94"/>
+      <c r="CA160" s="94"/>
+      <c r="CB160" s="94"/>
+      <c r="CC160" s="94"/>
+      <c r="CD160" s="95"/>
+    </row>
+    <row r="161" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I161" s="99"/>
+      <c r="J161" s="100"/>
+      <c r="K161" s="100"/>
+      <c r="L161" s="100"/>
+      <c r="M161" s="100"/>
+      <c r="N161" s="100"/>
+      <c r="O161" s="100"/>
+      <c r="P161" s="100"/>
+      <c r="Q161" s="100"/>
+      <c r="R161" s="100"/>
+      <c r="S161" s="100"/>
+      <c r="T161" s="100"/>
+      <c r="U161" s="100"/>
+      <c r="V161" s="100"/>
+      <c r="W161" s="100"/>
+      <c r="X161" s="100"/>
+      <c r="Y161" s="100"/>
+      <c r="Z161" s="100"/>
+      <c r="AA161" s="100"/>
+      <c r="AB161" s="100"/>
+      <c r="AC161" s="100"/>
+      <c r="AD161" s="100"/>
+      <c r="AE161" s="100"/>
+      <c r="AF161" s="100"/>
+      <c r="AG161" s="100"/>
+      <c r="AH161" s="100"/>
+      <c r="AI161" s="100"/>
+      <c r="AJ161" s="100"/>
+      <c r="AK161" s="100"/>
+      <c r="AL161" s="100"/>
+      <c r="AM161" s="100"/>
+      <c r="AN161" s="100"/>
+      <c r="AO161" s="100"/>
+      <c r="AP161" s="100"/>
+      <c r="AQ161" s="100"/>
+      <c r="AR161" s="100"/>
+      <c r="AS161" s="100"/>
+      <c r="AT161" s="100"/>
+      <c r="AU161" s="100"/>
+      <c r="AV161" s="100"/>
+      <c r="AW161" s="100"/>
+      <c r="AX161" s="100"/>
+      <c r="AY161" s="100"/>
+      <c r="AZ161" s="101"/>
+      <c r="BA161" s="93"/>
+      <c r="BB161" s="94"/>
+      <c r="BC161" s="94"/>
+      <c r="BD161" s="94"/>
+      <c r="BE161" s="94"/>
+      <c r="BF161" s="94"/>
+      <c r="BG161" s="94"/>
+      <c r="BH161" s="94"/>
+      <c r="BI161" s="94"/>
+      <c r="BJ161" s="94"/>
+      <c r="BK161" s="94"/>
+      <c r="BL161" s="94"/>
+      <c r="BM161" s="94"/>
+      <c r="BN161" s="94"/>
+      <c r="BO161" s="94"/>
+      <c r="BP161" s="94"/>
+      <c r="BQ161" s="94"/>
+      <c r="BR161" s="94"/>
+      <c r="BS161" s="94"/>
+      <c r="BT161" s="94"/>
+      <c r="BU161" s="94"/>
+      <c r="BV161" s="94"/>
+      <c r="BW161" s="94"/>
+      <c r="BX161" s="94"/>
+      <c r="BY161" s="94"/>
+      <c r="BZ161" s="94"/>
+      <c r="CA161" s="94"/>
+      <c r="CB161" s="94"/>
+      <c r="CC161" s="94"/>
+      <c r="CD161" s="95"/>
+    </row>
+    <row r="162" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I162" s="102"/>
+      <c r="J162" s="103"/>
+      <c r="K162" s="103"/>
+      <c r="L162" s="103"/>
+      <c r="M162" s="103"/>
+      <c r="N162" s="103"/>
+      <c r="O162" s="103"/>
+      <c r="P162" s="103"/>
+      <c r="Q162" s="103"/>
+      <c r="R162" s="103"/>
+      <c r="S162" s="103"/>
+      <c r="T162" s="103"/>
+      <c r="U162" s="103"/>
+      <c r="V162" s="103"/>
+      <c r="W162" s="103"/>
+      <c r="X162" s="103"/>
+      <c r="Y162" s="103"/>
+      <c r="Z162" s="103"/>
+      <c r="AA162" s="103"/>
+      <c r="AB162" s="103"/>
+      <c r="AC162" s="103"/>
+      <c r="AD162" s="103"/>
+      <c r="AE162" s="103"/>
+      <c r="AF162" s="103"/>
+      <c r="AG162" s="103"/>
+      <c r="AH162" s="103"/>
+      <c r="AI162" s="103"/>
+      <c r="AJ162" s="103"/>
+      <c r="AK162" s="103"/>
+      <c r="AL162" s="103"/>
+      <c r="AM162" s="103"/>
+      <c r="AN162" s="103"/>
+      <c r="AO162" s="103"/>
+      <c r="AP162" s="103"/>
+      <c r="AQ162" s="103"/>
+      <c r="AR162" s="103"/>
+      <c r="AS162" s="103"/>
+      <c r="AT162" s="103"/>
+      <c r="AU162" s="103"/>
+      <c r="AV162" s="103"/>
+      <c r="AW162" s="103"/>
+      <c r="AX162" s="103"/>
+      <c r="AY162" s="103"/>
+      <c r="AZ162" s="104"/>
+      <c r="BA162" s="93"/>
+      <c r="BB162" s="94"/>
+      <c r="BC162" s="94"/>
+      <c r="BD162" s="94"/>
+      <c r="BE162" s="94"/>
+      <c r="BF162" s="94"/>
+      <c r="BG162" s="94"/>
+      <c r="BH162" s="94"/>
+      <c r="BI162" s="94"/>
+      <c r="BJ162" s="94"/>
+      <c r="BK162" s="94"/>
+      <c r="BL162" s="94"/>
+      <c r="BM162" s="94"/>
+      <c r="BN162" s="94"/>
+      <c r="BO162" s="94"/>
+      <c r="BP162" s="94"/>
+      <c r="BQ162" s="94"/>
+      <c r="BR162" s="94"/>
+      <c r="BS162" s="94"/>
+      <c r="BT162" s="94"/>
+      <c r="BU162" s="94"/>
+      <c r="BV162" s="94"/>
+      <c r="BW162" s="94"/>
+      <c r="BX162" s="94"/>
+      <c r="BY162" s="94"/>
+      <c r="BZ162" s="94"/>
+      <c r="CA162" s="94"/>
+      <c r="CB162" s="94"/>
+      <c r="CC162" s="94"/>
+      <c r="CD162" s="95"/>
+    </row>
+    <row r="163" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I163" s="99"/>
+      <c r="J163" s="100"/>
+      <c r="K163" s="100"/>
+      <c r="L163" s="100"/>
+      <c r="M163" s="100"/>
+      <c r="N163" s="100"/>
+      <c r="O163" s="100"/>
+      <c r="P163" s="100"/>
+      <c r="Q163" s="100"/>
+      <c r="R163" s="100"/>
+      <c r="S163" s="100"/>
+      <c r="T163" s="100"/>
+      <c r="U163" s="100"/>
+      <c r="V163" s="100"/>
+      <c r="W163" s="100"/>
+      <c r="X163" s="100"/>
+      <c r="Y163" s="100"/>
+      <c r="Z163" s="100"/>
+      <c r="AA163" s="100"/>
+      <c r="AB163" s="100"/>
+      <c r="AC163" s="100"/>
+      <c r="AD163" s="100"/>
+      <c r="AE163" s="100"/>
+      <c r="AF163" s="100"/>
+      <c r="AG163" s="100"/>
+      <c r="AH163" s="100"/>
+      <c r="AI163" s="100"/>
+      <c r="AJ163" s="100"/>
+      <c r="AK163" s="100"/>
+      <c r="AL163" s="100"/>
+      <c r="AM163" s="100"/>
+      <c r="AN163" s="100"/>
+      <c r="AO163" s="100"/>
+      <c r="AP163" s="100"/>
+      <c r="AQ163" s="100"/>
+      <c r="AR163" s="100"/>
+      <c r="AS163" s="100"/>
+      <c r="AT163" s="100"/>
+      <c r="AU163" s="100"/>
+      <c r="AV163" s="100"/>
+      <c r="AW163" s="100"/>
+      <c r="AX163" s="100"/>
+      <c r="AY163" s="100"/>
+      <c r="AZ163" s="101"/>
+      <c r="BA163" s="93"/>
+      <c r="BB163" s="94"/>
+      <c r="BC163" s="94"/>
+      <c r="BD163" s="94"/>
+      <c r="BE163" s="94"/>
+      <c r="BF163" s="94"/>
+      <c r="BG163" s="94"/>
+      <c r="BH163" s="94"/>
+      <c r="BI163" s="94"/>
+      <c r="BJ163" s="94"/>
+      <c r="BK163" s="94"/>
+      <c r="BL163" s="94"/>
+      <c r="BM163" s="94"/>
+      <c r="BN163" s="94"/>
+      <c r="BO163" s="94"/>
+      <c r="BP163" s="94"/>
+      <c r="BQ163" s="94"/>
+      <c r="BR163" s="94"/>
+      <c r="BS163" s="94"/>
+      <c r="BT163" s="94"/>
+      <c r="BU163" s="94"/>
+      <c r="BV163" s="94"/>
+      <c r="BW163" s="94"/>
+      <c r="BX163" s="94"/>
+      <c r="BY163" s="94"/>
+      <c r="BZ163" s="94"/>
+      <c r="CA163" s="94"/>
+      <c r="CB163" s="94"/>
+      <c r="CC163" s="94"/>
+      <c r="CD163" s="95"/>
+    </row>
+    <row r="164" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I164" s="105"/>
+      <c r="J164" s="106"/>
+      <c r="K164" s="106"/>
+      <c r="L164" s="106"/>
+      <c r="M164" s="106"/>
+      <c r="N164" s="106"/>
+      <c r="O164" s="106"/>
+      <c r="P164" s="106"/>
+      <c r="Q164" s="106"/>
+      <c r="R164" s="106"/>
+      <c r="S164" s="106"/>
+      <c r="T164" s="106"/>
+      <c r="U164" s="106"/>
+      <c r="V164" s="106"/>
+      <c r="W164" s="106"/>
+      <c r="X164" s="106"/>
+      <c r="Y164" s="106"/>
+      <c r="Z164" s="106"/>
+      <c r="AA164" s="106"/>
+      <c r="AB164" s="106"/>
+      <c r="AC164" s="106"/>
+      <c r="AD164" s="106"/>
+      <c r="AE164" s="106"/>
+      <c r="AF164" s="106"/>
+      <c r="AG164" s="106"/>
+      <c r="AH164" s="106"/>
+      <c r="AI164" s="106"/>
+      <c r="AJ164" s="106"/>
+      <c r="AK164" s="106"/>
+      <c r="AL164" s="106"/>
+      <c r="AM164" s="106"/>
+      <c r="AN164" s="106"/>
+      <c r="AO164" s="106"/>
+      <c r="AP164" s="106"/>
+      <c r="AQ164" s="106"/>
+      <c r="AR164" s="106"/>
+      <c r="AS164" s="106"/>
+      <c r="AT164" s="106"/>
+      <c r="AU164" s="106"/>
+      <c r="AV164" s="106"/>
+      <c r="AW164" s="106"/>
+      <c r="AX164" s="106"/>
+      <c r="AY164" s="106"/>
+      <c r="AZ164" s="107"/>
+      <c r="BA164" s="96"/>
+      <c r="BB164" s="97"/>
+      <c r="BC164" s="97"/>
+      <c r="BD164" s="97"/>
+      <c r="BE164" s="97"/>
+      <c r="BF164" s="97"/>
+      <c r="BG164" s="97"/>
+      <c r="BH164" s="97"/>
+      <c r="BI164" s="97"/>
+      <c r="BJ164" s="97"/>
+      <c r="BK164" s="97"/>
+      <c r="BL164" s="97"/>
+      <c r="BM164" s="97"/>
+      <c r="BN164" s="97"/>
+      <c r="BO164" s="97"/>
+      <c r="BP164" s="97"/>
+      <c r="BQ164" s="97"/>
+      <c r="BR164" s="97"/>
+      <c r="BS164" s="97"/>
+      <c r="BT164" s="97"/>
+      <c r="BU164" s="97"/>
+      <c r="BV164" s="97"/>
+      <c r="BW164" s="97"/>
+      <c r="BX164" s="97"/>
+      <c r="BY164" s="97"/>
+      <c r="BZ164" s="97"/>
+      <c r="CA164" s="97"/>
+      <c r="CB164" s="97"/>
+      <c r="CC164" s="97"/>
+      <c r="CD164" s="98"/>
+    </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="A4:XFD5"/>
@@ -20007,6 +22466,21 @@
     <mergeCell ref="I142:AZ142"/>
     <mergeCell ref="I143:AZ143"/>
     <mergeCell ref="I144:AZ144"/>
+    <mergeCell ref="I148:CD150"/>
+    <mergeCell ref="I152:AZ152"/>
+    <mergeCell ref="BA152:CD164"/>
+    <mergeCell ref="I153:AZ153"/>
+    <mergeCell ref="I154:AZ154"/>
+    <mergeCell ref="I155:AZ155"/>
+    <mergeCell ref="I156:AZ156"/>
+    <mergeCell ref="I157:AZ157"/>
+    <mergeCell ref="I158:AZ158"/>
+    <mergeCell ref="I159:AZ159"/>
+    <mergeCell ref="I160:AZ160"/>
+    <mergeCell ref="I161:AZ161"/>
+    <mergeCell ref="I162:AZ162"/>
+    <mergeCell ref="I163:AZ163"/>
+    <mergeCell ref="I164:AZ164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
